--- a/data/trans_orig/P22$concerEmp-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P22$concerEmp-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1805</v>
+        <v>1809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10505</v>
+        <v>10618</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008394351697406691</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003094631334245907</v>
+        <v>0.003100844969812376</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01800888133739709</v>
+        <v>0.01820281432723651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4173</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9840</v>
+        <v>10049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004524274996085557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001269500038278111</v>
+        <v>0.001271357243224601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01066806594047198</v>
+        <v>0.01089522628833974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9070</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4201</v>
+        <v>3999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16576</v>
+        <v>17073</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006023624007313298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002790045703223404</v>
+        <v>0.002656237739593995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01100944033186705</v>
+        <v>0.01133925681211455</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>6949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2875</v>
+        <v>2620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16210</v>
+        <v>16411</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01191336160451708</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0049280039361274</v>
+        <v>0.004491359892147652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02778957014590965</v>
+        <v>0.02813288499024332</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -836,19 +836,19 @@
         <v>21166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13423</v>
+        <v>12640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33167</v>
+        <v>32408</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02294799154653679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01455369843512721</v>
+        <v>0.01370467280644374</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03596035247818925</v>
+        <v>0.03513667205276418</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -857,19 +857,19 @@
         <v>28115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19730</v>
+        <v>18052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42308</v>
+        <v>41958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01867294410699034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01310387944793149</v>
+        <v>0.01198971596657271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02809933620535409</v>
+        <v>0.02786684043091396</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>2590</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7040</v>
+        <v>7210</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004440215289944325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00140702677602892</v>
+        <v>0.001392510885912014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01206891106936792</v>
+        <v>0.01235984033561217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>9979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4664</v>
+        <v>5111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17725</v>
+        <v>19350</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01081927509898119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005056814617105264</v>
+        <v>0.005541205132390445</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01921705614722069</v>
+        <v>0.02097992658954642</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -928,19 +928,19 @@
         <v>12569</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6858</v>
+        <v>7016</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21534</v>
+        <v>21474</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008347893326631042</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004554692939113684</v>
+        <v>0.004659464674269576</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01430192117593186</v>
+        <v>0.01426244579819315</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6958</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2729</v>
+        <v>2511</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16754</v>
+        <v>14735</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01192782364338778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004677809516726795</v>
+        <v>0.004304916229484662</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02872181929559232</v>
+        <v>0.02526022432410546</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -978,19 +978,19 @@
         <v>5689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1983</v>
+        <v>1873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11497</v>
+        <v>11516</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006168487624465602</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002150271767989264</v>
+        <v>0.002030696483363739</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01246549902772821</v>
+        <v>0.01248619893266042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -999,19 +999,19 @@
         <v>12647</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7119</v>
+        <v>6525</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22928</v>
+        <v>22335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008399775382238321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004728173849822252</v>
+        <v>0.00433363948222422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0152277069160953</v>
+        <v>0.01483375910331842</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10880</v>
+        <v>9728</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004615006151940491</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0186512951662854</v>
+        <v>0.01667652596964992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4692</v>
+        <v>5548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001009313936894822</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.005087201760406869</v>
+        <v>0.00601519452440687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1070,19 +1070,19 @@
         <v>3623</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9221</v>
+        <v>10434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00240623484432148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0006142320434599848</v>
+        <v>0.0006160919025805759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006124070586718852</v>
+        <v>0.006929836407876903</v>
       </c>
     </row>
     <row r="9">
@@ -1112,19 +1112,19 @@
         <v>4059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12218</v>
+        <v>12718</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00440124641940012</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001106057636947547</v>
+        <v>0.001109371197092203</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01324675756347277</v>
+        <v>0.01378878290592763</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1133,19 +1133,19 @@
         <v>4059</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11638</v>
+        <v>11058</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002696111101321155</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.000675750881481814</v>
+        <v>0.0006734699747692547</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007729461905985983</v>
+        <v>0.007344081325646881</v>
       </c>
     </row>
     <row r="10">
@@ -1162,19 +1162,19 @@
         <v>571859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>562775</v>
+        <v>561665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>577594</v>
+        <v>577417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9803470899951847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9647739517867838</v>
+        <v>0.9628711672473285</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9901779121372737</v>
+        <v>0.9898747704378208</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>866</v>
@@ -1183,19 +1183,19 @@
         <v>901729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>890334</v>
+        <v>890368</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>909549</v>
+        <v>909586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9776612272414628</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9653061859771049</v>
+        <v>0.9653430726671498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9861391297572872</v>
+        <v>0.9861796728850225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1429</v>
@@ -1204,19 +1204,19 @@
         <v>1473588</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1460558</v>
+        <v>1459615</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1484032</v>
+        <v>1483679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9787017868930872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9700478180684112</v>
+        <v>0.9694213512600678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9856384828203708</v>
+        <v>0.9854034352303171</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>29523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20292</v>
+        <v>19729</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41676</v>
+        <v>41505</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02741830868611532</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01884503016262414</v>
+        <v>0.01832291956135675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03870523964775547</v>
+        <v>0.03854608673604066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1258,19 +1258,19 @@
         <v>3301</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>965</v>
+        <v>33</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8585</v>
+        <v>8593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003125249161711311</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0009133388912894005</v>
+        <v>3.152936647602748e-05</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008126698136100993</v>
+        <v>0.008134341419984313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -1279,19 +1279,19 @@
         <v>32824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22960</v>
+        <v>22317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47034</v>
+        <v>46630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01538795348436803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01076352872119095</v>
+        <v>0.01046226206552337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02204927482481623</v>
+        <v>0.0218601726558199</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>16944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10693</v>
+        <v>9847</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26315</v>
+        <v>26401</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01573654255882332</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009930323836228121</v>
+        <v>0.009144760357986257</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02443928074523328</v>
+        <v>0.02451903297259536</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1329,19 +1329,19 @@
         <v>24608</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16667</v>
+        <v>16854</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37004</v>
+        <v>35511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02329487029668148</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01577771880245927</v>
+        <v>0.0159547363623543</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03503027685999237</v>
+        <v>0.0336168180799863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -1350,19 +1350,19 @@
         <v>41552</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30774</v>
+        <v>30069</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56006</v>
+        <v>56581</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01947956090224392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01442654947371744</v>
+        <v>0.01409645325731397</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02625566525594864</v>
+        <v>0.02652491764325432</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>14465</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8604</v>
+        <v>8397</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24385</v>
+        <v>23505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01343396072123617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00799075609872635</v>
+        <v>0.007798172252663643</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02264674004278432</v>
+        <v>0.02182907744385433</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1400,19 +1400,19 @@
         <v>34967</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25240</v>
+        <v>24312</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48852</v>
+        <v>48111</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03310146981941189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02389386975214237</v>
+        <v>0.02301534679874239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04624549392000828</v>
+        <v>0.04554458182188589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -1421,19 +1421,19 @@
         <v>49432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37007</v>
+        <v>36660</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63257</v>
+        <v>64843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02317366107256337</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01734867033231204</v>
+        <v>0.01718631186169562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02965481442747352</v>
+        <v>0.03039816869349045</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>9570</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4752</v>
+        <v>4413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17921</v>
+        <v>17116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00888764360533663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004413212729192857</v>
+        <v>0.004098430996065051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01664365246744217</v>
+        <v>0.01589588218184007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -1471,19 +1471,19 @@
         <v>15865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9113</v>
+        <v>9731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24931</v>
+        <v>26136</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01501827229592677</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008626627864340588</v>
+        <v>0.009212222381634789</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02360131140270947</v>
+        <v>0.02474146030091074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1492,19 +1492,19 @@
         <v>25435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16475</v>
+        <v>16265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36958</v>
+        <v>36976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01192363998462067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007723626576648148</v>
+        <v>0.007624922195295255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0173259495080136</v>
+        <v>0.01733419607416225</v>
       </c>
     </row>
     <row r="15">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11851</v>
+        <v>10484</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003164613707844224</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01100610437953149</v>
+        <v>0.009736970602356286</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10447</v>
+        <v>11905</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001597440707529495</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.00489743576986922</v>
+        <v>0.005580847876476624</v>
       </c>
     </row>
     <row r="16">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5274</v>
+        <v>5265</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00092775655513645</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.004992667074560605</v>
+        <v>0.004984436928238693</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4894</v>
+        <v>5332</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0004594415490493785</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.002294147050690325</v>
+        <v>0.002499497385984538</v>
       </c>
     </row>
     <row r="17">
@@ -1647,19 +1647,19 @@
         <v>1057012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1045546</v>
+        <v>1044591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1065044</v>
+        <v>1064414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9816610400357332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9710118557301941</v>
+        <v>0.9701252817673708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9891197640870729</v>
+        <v>0.9885348955276563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>987</v>
@@ -1668,19 +1668,19 @@
         <v>1013921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>998767</v>
+        <v>999600</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1026185</v>
+        <v>1025942</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9598283502528375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9454827068349528</v>
+        <v>0.9462705640230448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9714380454726638</v>
+        <v>0.9712078019345771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2023</v>
@@ -1689,19 +1689,19 @@
         <v>2070935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2054382</v>
+        <v>2054187</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2085651</v>
+        <v>2086593</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9708491036950702</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9630893528580656</v>
+        <v>0.9629978745592856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9777480563541149</v>
+        <v>0.9781896113109954</v>
       </c>
     </row>
     <row r="18">
@@ -1722,19 +1722,19 @@
         <v>21372</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14216</v>
+        <v>13154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32790</v>
+        <v>31241</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01910556463202654</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01270790655206651</v>
+        <v>0.01175883995403215</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02931266357760015</v>
+        <v>0.02792793792195046</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1743,19 +1743,19 @@
         <v>5694</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1975</v>
+        <v>1906</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12173</v>
+        <v>11429</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005733386657481803</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001989194259822731</v>
+        <v>0.001918875738411149</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01225817022246764</v>
+        <v>0.01150899434437575</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -1764,19 +1764,19 @@
         <v>27066</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17772</v>
+        <v>17619</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39100</v>
+        <v>39074</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01281698800775867</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008415780037465301</v>
+        <v>0.008343468799605885</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01851552642188018</v>
+        <v>0.01850307925378921</v>
       </c>
     </row>
     <row r="19">
@@ -1793,19 +1793,19 @@
         <v>32780</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22306</v>
+        <v>22486</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44642</v>
+        <v>46548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02930308561034227</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01994012438214246</v>
+        <v>0.02010109403236971</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03990696902786523</v>
+        <v>0.04161070618980806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1814,19 +1814,19 @@
         <v>47781</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34769</v>
+        <v>35426</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62409</v>
+        <v>63665</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04811381933358076</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03501053029972034</v>
+        <v>0.035672907779803</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06284359800681916</v>
+        <v>0.06410788950512143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -1835,19 +1835,19 @@
         <v>80561</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63733</v>
+        <v>64732</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100085</v>
+        <v>101060</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03814926912677966</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03018039213915436</v>
+        <v>0.03065357964403039</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04739464263242241</v>
+        <v>0.04785630296146027</v>
       </c>
     </row>
     <row r="20">
@@ -1864,19 +1864,19 @@
         <v>61453</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46606</v>
+        <v>47091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78415</v>
+        <v>79266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05493571013196076</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04166270366379569</v>
+        <v>0.04209640108270897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07009820441174741</v>
+        <v>0.07085878084900522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1885,19 +1885,19 @@
         <v>37451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27823</v>
+        <v>27204</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51889</v>
+        <v>52587</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03771176187440244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02801694242169239</v>
+        <v>0.02739308894681384</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05224956223758894</v>
+        <v>0.05295284013782274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -1906,19 +1906,19 @@
         <v>98905</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>81633</v>
+        <v>81571</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>119926</v>
+        <v>118382</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04683574925825214</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03865672285337474</v>
+        <v>0.03862741673208324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05679049953394965</v>
+        <v>0.05605903281797402</v>
       </c>
     </row>
     <row r="21">
@@ -1935,19 +1935,19 @@
         <v>30369</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20822</v>
+        <v>20420</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43136</v>
+        <v>43072</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02714828237076138</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01861383869387355</v>
+        <v>0.01825460070295961</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03856102005979744</v>
+        <v>0.03850338668183109</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>23</v>
@@ -1956,19 +1956,19 @@
         <v>23745</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15582</v>
+        <v>15279</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34256</v>
+        <v>34896</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02391013837214453</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01569067930330188</v>
+        <v>0.01538531983469705</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03449408072001184</v>
+        <v>0.03513872252030473</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -1977,19 +1977,19 @@
         <v>54114</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41597</v>
+        <v>40863</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>71104</v>
+        <v>71354</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02562547010379344</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01969809423602011</v>
+        <v>0.01935034514931474</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03367091582478158</v>
+        <v>0.03378905961987359</v>
       </c>
     </row>
     <row r="22">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5295</v>
+        <v>7313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00106730423104502</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005332069824292987</v>
+        <v>0.007363937268178086</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5442</v>
+        <v>5328</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0005019245519397457</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0025771352889266</v>
+        <v>0.002523209993082327</v>
       </c>
     </row>
     <row r="23">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10788</v>
+        <v>9944</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002725850725468645</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009643636393665474</v>
+        <v>0.008889677772192362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8867</v>
+        <v>8838</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002615761456150769</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008928677539995367</v>
+        <v>0.008898983961524488</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2111,19 +2111,19 @@
         <v>5647</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1470</v>
+        <v>1582</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13098</v>
+        <v>14327</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002674078694993655</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0006959959743286505</v>
+        <v>0.0007492114519620677</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.006202251600311618</v>
+        <v>0.006784404549402966</v>
       </c>
     </row>
     <row r="24">
@@ -2140,19 +2140,19 @@
         <v>1053315</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1037846</v>
+        <v>1037372</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1067005</v>
+        <v>1068288</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9416009129579803</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.927772005733534</v>
+        <v>0.9273486084039703</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9538386684845034</v>
+        <v>0.9549854713478741</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>930</v>
@@ -2161,19 +2161,19 @@
         <v>937407</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>919471</v>
+        <v>919700</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>951551</v>
+        <v>951715</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9439281294476142</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.925866933185394</v>
+        <v>0.9260977148343402</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9581697696018179</v>
+        <v>0.9583353812202984</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1965</v>
@@ -2182,19 +2182,19 @@
         <v>1990723</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1968460</v>
+        <v>1965715</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2009390</v>
+        <v>2008518</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9426953404509573</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9321530924263587</v>
+        <v>0.9308531352378858</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9515352704779473</v>
+        <v>0.9511224156326058</v>
       </c>
     </row>
     <row r="25">
@@ -2215,19 +2215,19 @@
         <v>17543</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10318</v>
+        <v>10497</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28241</v>
+        <v>27447</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03936051888249354</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.023151287551575</v>
+        <v>0.02355109303240755</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06336428137525274</v>
+        <v>0.0615833851566286</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2236,19 +2236,19 @@
         <v>5051</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1946</v>
+        <v>1957</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11261</v>
+        <v>12074</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01480408554186793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00570264135523277</v>
+        <v>0.005735528563843139</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03300673401906323</v>
+        <v>0.03539239146654829</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -2257,19 +2257,19 @@
         <v>22593</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13965</v>
+        <v>14583</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34383</v>
+        <v>33929</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02871352898420732</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01774764741404677</v>
+        <v>0.01853329309821309</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04369628194676783</v>
+        <v>0.04311998750840196</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>34510</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25199</v>
+        <v>24754</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48953</v>
+        <v>48273</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0774288133993546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05653949039519662</v>
+        <v>0.05553924668732984</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1098342581613417</v>
+        <v>0.1083097677785628</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -2307,19 +2307,19 @@
         <v>37060</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26196</v>
+        <v>26646</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49674</v>
+        <v>49785</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1086314279170612</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07678409186900843</v>
+        <v>0.07810467721008867</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1456040697767082</v>
+        <v>0.1459308949252762</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -2328,19 +2328,19 @@
         <v>71570</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>56311</v>
+        <v>56194</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>88120</v>
+        <v>89093</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09095740352325236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07156428772282222</v>
+        <v>0.07141585584082508</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.111990076817223</v>
+        <v>0.1132262924684271</v>
       </c>
     </row>
     <row r="27">
@@ -2357,19 +2357,19 @@
         <v>38584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27061</v>
+        <v>28370</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52195</v>
+        <v>52700</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0865701870416946</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06071632909449361</v>
+        <v>0.0636524734588968</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1171100358999021</v>
+        <v>0.1182417656264119</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>29</v>
@@ -2378,19 +2378,19 @@
         <v>29228</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20101</v>
+        <v>19758</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40492</v>
+        <v>40803</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08567341842372511</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05891930478480457</v>
+        <v>0.05791510761002742</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1186888857979464</v>
+        <v>0.1196028720851154</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>66</v>
@@ -2399,19 +2399,19 @@
         <v>67812</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>54367</v>
+        <v>53649</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>84953</v>
+        <v>87323</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08618137298697495</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06909473929658</v>
+        <v>0.06818173047171498</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1079649632239946</v>
+        <v>0.1109772378673448</v>
       </c>
     </row>
     <row r="28">
@@ -2428,19 +2428,19 @@
         <v>22421</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14352</v>
+        <v>14456</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31751</v>
+        <v>33361</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05030519831436799</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03220082772205562</v>
+        <v>0.03243419582646359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07123895417459944</v>
+        <v>0.07485068437718265</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -2449,19 +2449,19 @@
         <v>23664</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15265</v>
+        <v>15677</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>35109</v>
+        <v>35818</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06936494202475751</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04474391494520186</v>
+        <v>0.0459508903759338</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1029117243674652</v>
+        <v>0.1049881832474819</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -2470,19 +2470,19 @@
         <v>46085</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33796</v>
+        <v>34400</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>62175</v>
+        <v>61614</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0585689757096268</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04295067814659687</v>
+        <v>0.04371800491361323</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07901675820961628</v>
+        <v>0.07830387606312397</v>
       </c>
     </row>
     <row r="29">
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3727</v>
+        <v>3845</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.00216854603203769</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01092487994343497</v>
+        <v>0.01127073772629409</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3727</v>
+        <v>3860</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0009402215450758019</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004736247553838214</v>
+        <v>0.004905138815461175</v>
       </c>
     </row>
     <row r="31">
@@ -2609,19 +2609,19 @@
         <v>403385</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>389194</v>
+        <v>389560</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>415220</v>
+        <v>414475</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9050672980398241</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.873228161977846</v>
+        <v>0.8740481812839965</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9316209368836008</v>
+        <v>0.9299503760437164</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>305</v>
@@ -2630,19 +2630,19 @@
         <v>307067</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>294109</v>
+        <v>294793</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>317259</v>
+        <v>316166</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9000739495085607</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8620917000185606</v>
+        <v>0.8640938474337539</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.929945980436001</v>
+        <v>0.9267448345138352</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>699</v>
@@ -2651,19 +2651,19 @@
         <v>710452</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>691973</v>
+        <v>689245</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>726157</v>
+        <v>725356</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9029023203073685</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.8794174554272551</v>
+        <v>0.8759497341101765</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9228612736699796</v>
+        <v>0.9218428649632601</v>
       </c>
     </row>
     <row r="32">
@@ -2684,19 +2684,19 @@
         <v>73335</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>56830</v>
+        <v>56940</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>91520</v>
+        <v>90857</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02274351463720271</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01762498404957433</v>
+        <v>0.01765890010639058</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02838352985345925</v>
+        <v>0.02817782508437147</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2705,19 +2705,19 @@
         <v>18219</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10917</v>
+        <v>11179</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29124</v>
+        <v>28782</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005499218066553068</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003295126570118242</v>
+        <v>0.003374346962778258</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008790925668271667</v>
+        <v>0.00868763435657966</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>90</v>
@@ -2726,19 +2726,19 @@
         <v>91553</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>74775</v>
+        <v>74314</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>111630</v>
+        <v>113222</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01400461664001235</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01143803916200115</v>
+        <v>0.01136764924973127</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0170756831652421</v>
+        <v>0.01731917733849518</v>
       </c>
     </row>
     <row r="33">
@@ -2755,19 +2755,19 @@
         <v>91183</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>73492</v>
+        <v>72542</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>110766</v>
+        <v>109177</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02827893682853001</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02279237686594555</v>
+        <v>0.02249773906847293</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03435212709703794</v>
+        <v>0.03385933949139957</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>123</v>
@@ -2776,19 +2776,19 @@
         <v>130615</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>107317</v>
+        <v>109687</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>157140</v>
+        <v>155497</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03942580312804243</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03239328988992851</v>
+        <v>0.03310879503328915</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04743227189609676</v>
+        <v>0.04693633079947446</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>213</v>
@@ -2797,19 +2797,19 @@
         <v>221799</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>193504</v>
+        <v>195223</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>252817</v>
+        <v>254850</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03392783802787235</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02959975066825955</v>
+        <v>0.02986260967963808</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03867264190021993</v>
+        <v>0.03898364058443536</v>
       </c>
     </row>
     <row r="34">
@@ -2826,19 +2826,19 @@
         <v>117093</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>97334</v>
+        <v>97766</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>142420</v>
+        <v>142752</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0363143145473938</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03018655303325505</v>
+        <v>0.03032062752662841</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04416921603830858</v>
+        <v>0.04427226541177307</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>108</v>
@@ -2847,19 +2847,19 @@
         <v>111625</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>91886</v>
+        <v>92834</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>132136</v>
+        <v>133134</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03369374888207019</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02773559741135202</v>
+        <v>0.02802172899477904</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03988495284258318</v>
+        <v>0.04018594627299293</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>222</v>
@@ -2868,19 +2868,19 @@
         <v>228718</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>202409</v>
+        <v>199970</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>261750</v>
+        <v>258853</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03498628960010889</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03096187425353977</v>
+        <v>0.03058883229907156</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04003909542388748</v>
+        <v>0.03959594996751416</v>
       </c>
     </row>
     <row r="35">
@@ -2897,19 +2897,19 @@
         <v>69318</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54728</v>
+        <v>53535</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>88481</v>
+        <v>87818</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02149771303025261</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0169730247572275</v>
+        <v>0.01660284103301088</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02744079680297094</v>
+        <v>0.02723513618170805</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>67</v>
@@ -2918,19 +2918,19 @@
         <v>68963</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>54000</v>
+        <v>54611</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>86787</v>
+        <v>86925</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02081638378502741</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01629979186538845</v>
+        <v>0.01648409281842363</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02619632911979462</v>
+        <v>0.02623794962192251</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>134</v>
@@ -2939,19 +2939,19 @@
         <v>138281</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>114362</v>
+        <v>116437</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>162238</v>
+        <v>165320</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02115243557853795</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01749361417469224</v>
+        <v>0.01781100896795753</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02481707716325935</v>
+        <v>0.02528841945459315</v>
       </c>
     </row>
     <row r="36">
@@ -2968,19 +2968,19 @@
         <v>6100</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15046</v>
+        <v>16351</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001891677941618741</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0005136117504310352</v>
+        <v>0.0005109411299794615</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004666407511614596</v>
+        <v>0.005070952787605107</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6747</v>
+        <v>7949</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0006009329344163322</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.00203658166498052</v>
+        <v>0.00239927680548741</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>6</v>
@@ -3010,19 +3010,19 @@
         <v>8090</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2731</v>
+        <v>2810</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>16171</v>
+        <v>17171</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001237566658383043</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0004177770462412804</v>
+        <v>0.0004299087282369799</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002473642187683411</v>
+        <v>0.002626519463362377</v>
       </c>
     </row>
     <row r="37">
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10652</v>
+        <v>10641</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0009456746857522425</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.003303610201729515</v>
+        <v>0.003300125955891831</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -3060,19 +3060,19 @@
         <v>8377</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3264</v>
+        <v>3548</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>17316</v>
+        <v>17304</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.002528559260512429</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0009851695534002665</v>
+        <v>0.001070949467662453</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005226856501266816</v>
+        <v>0.005223102010883864</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -3081,19 +3081,19 @@
         <v>11426</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5209</v>
+        <v>5531</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>22093</v>
+        <v>23319</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001747833636306303</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0007967813006696429</v>
+        <v>0.000846085168479454</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.003379565683135629</v>
+        <v>0.003567079419934524</v>
       </c>
     </row>
     <row r="38">
@@ -3110,19 +3110,19 @@
         <v>3085572</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3059668</v>
+        <v>3058681</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3108247</v>
+        <v>3106843</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9569381683369387</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9489045427145043</v>
+        <v>0.9485984831051435</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9639705522822953</v>
+        <v>0.9635350884161213</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3088</v>
@@ -3131,19 +3131,19 @@
         <v>3160126</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3133151</v>
+        <v>3134284</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3183312</v>
+        <v>3183288</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9538734502295332</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9457310769659842</v>
+        <v>0.9460729410728248</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9608718516049183</v>
+        <v>0.9608647028302963</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6116</v>
@@ -3152,19 +3152,19 @@
         <v>6245697</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6212325</v>
+        <v>6207799</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6276710</v>
+        <v>6278851</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.955385060106572</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9502803104878516</v>
+        <v>0.94958786543941</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9601290025369601</v>
+        <v>0.9604565478031211</v>
       </c>
     </row>
     <row r="39">
@@ -3425,19 +3425,19 @@
         <v>7420</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2949</v>
+        <v>3157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16044</v>
+        <v>16519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007107302268788378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002824538045779561</v>
+        <v>0.00302396984816362</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01536831495090534</v>
+        <v>0.01582379777345581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3459,19 +3459,19 @@
         <v>7420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2982</v>
+        <v>2870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16918</v>
+        <v>16305</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003428849066242859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001378207033891733</v>
+        <v>0.0013263817402527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007818609612175268</v>
+        <v>0.007535311795750588</v>
       </c>
     </row>
     <row r="5">
@@ -3488,19 +3488,19 @@
         <v>19785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11426</v>
+        <v>11726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32610</v>
+        <v>32231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01895205580862312</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0109451090512361</v>
+        <v>0.01123249775227143</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03123731889893025</v>
+        <v>0.03087470817623743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -3509,19 +3509,19 @@
         <v>22631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14422</v>
+        <v>14786</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32868</v>
+        <v>33728</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02020757064973212</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01287757532970802</v>
+        <v>0.01320273797425672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02934821041415089</v>
+        <v>0.03011579125778844</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -3530,19 +3530,19 @@
         <v>42416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30842</v>
+        <v>30796</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57690</v>
+        <v>58829</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01960185968827549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01425306929575991</v>
+        <v>0.01423179923545809</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02666080770379694</v>
+        <v>0.02718690905892943</v>
       </c>
     </row>
     <row r="6">
@@ -3559,19 +3559,19 @@
         <v>6016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2028</v>
+        <v>2061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12142</v>
+        <v>12210</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005762531485005208</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001942503758983253</v>
+        <v>0.001974473889016182</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01163057971834292</v>
+        <v>0.01169653984890119</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -3580,19 +3580,19 @@
         <v>6270</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2213</v>
+        <v>2907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13269</v>
+        <v>13900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005598521951147743</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001975978104452505</v>
+        <v>0.002595858732317411</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01184816984461316</v>
+        <v>0.01241173223060376</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -3601,19 +3601,19 @@
         <v>12286</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5968</v>
+        <v>6757</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20052</v>
+        <v>20467</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005677646760499346</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002757913158833481</v>
+        <v>0.003122699428347691</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009266546450522491</v>
+        <v>0.009458675868890541</v>
       </c>
     </row>
     <row r="7">
@@ -3630,19 +3630,19 @@
         <v>15574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8214</v>
+        <v>9036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26568</v>
+        <v>27363</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01491870979074997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007868531299108623</v>
+        <v>0.008655692535552305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02544987665844325</v>
+        <v>0.02621104318170526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3651,19 +3651,19 @@
         <v>11851</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5704</v>
+        <v>5199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22382</v>
+        <v>23616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01058174292622708</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005093481402239843</v>
+        <v>0.004642520225268996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01998558699411726</v>
+        <v>0.02108682574181359</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -3672,19 +3672,19 @@
         <v>27425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17675</v>
+        <v>17270</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41543</v>
+        <v>41048</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01267407053821714</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008168050231424849</v>
+        <v>0.007980975560460448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01919833608749159</v>
+        <v>0.01896971954137084</v>
       </c>
     </row>
     <row r="8">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6349</v>
+        <v>6363</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001214802556132706</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006081908632661483</v>
+        <v>0.006095232275058753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6026</v>
+        <v>7169</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001067556471144155</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.005380735102328058</v>
+        <v>0.00640132396472065</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8557</v>
+        <v>8668</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001138593917129547</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.003954386497229448</v>
+        <v>0.004005570639234446</v>
       </c>
     </row>
     <row r="9">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7065</v>
+        <v>7899</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00181775149316588</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006308235580897112</v>
+        <v>0.007053209233041325</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6225</v>
+        <v>6922</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0009407949104446655</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002876772997695464</v>
+        <v>0.003198771890968996</v>
       </c>
     </row>
     <row r="10">
@@ -3835,19 +3835,19 @@
         <v>1026635</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1016389</v>
+        <v>1013676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1033870</v>
+        <v>1034365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9834284896966513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9736130207653327</v>
+        <v>0.9710142265811926</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9903581819457359</v>
+        <v>0.9908327067322413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1014</v>
@@ -3856,19 +3856,19 @@
         <v>1099885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1088149</v>
+        <v>1087182</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1107795</v>
+        <v>1108350</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9821034288124698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.971624351233912</v>
+        <v>0.9707605218010258</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9891666623084058</v>
+        <v>0.9896616772524007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1977</v>
@@ -3877,19 +3877,19 @@
         <v>2126521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2111443</v>
+        <v>2110409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2139213</v>
+        <v>2137161</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9827426915880791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9757745902461374</v>
+        <v>0.9752970020996495</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9886085105769231</v>
+        <v>0.9876601271246638</v>
       </c>
     </row>
     <row r="11">
@@ -3910,19 +3910,19 @@
         <v>6931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2889</v>
+        <v>2932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13872</v>
+        <v>13454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007100991997673447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002960130636799958</v>
+        <v>0.003003480412916336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0142118520259157</v>
+        <v>0.01378372112277803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3931,19 +3931,19 @@
         <v>3985</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9685</v>
+        <v>9913</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003641516325558244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0009469633179431983</v>
+        <v>0.0009508065266894245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008850690475605093</v>
+        <v>0.009058990642089931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -3952,19 +3952,19 @@
         <v>10916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5852</v>
+        <v>5004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18943</v>
+        <v>18434</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005272524989520043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002826711617506111</v>
+        <v>0.002416826505755836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009149418243362155</v>
+        <v>0.008903756541233458</v>
       </c>
     </row>
     <row r="12">
@@ -3981,19 +3981,19 @@
         <v>20548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12798</v>
+        <v>13087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30343</v>
+        <v>31157</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02105154262820328</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0131109807938707</v>
+        <v>0.01340792677785828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03108602471145759</v>
+        <v>0.0319201183545097</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -4002,19 +4002,19 @@
         <v>34605</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23429</v>
+        <v>23231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49607</v>
+        <v>48912</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03162370592273839</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02141113890951032</v>
+        <v>0.0212300487942428</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04533359325942214</v>
+        <v>0.0446987132179924</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -4023,19 +4023,19 @@
         <v>55153</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42008</v>
+        <v>41366</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72663</v>
+        <v>72116</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02663934078636998</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02029004593650398</v>
+        <v>0.01998034803608952</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0350970607481398</v>
+        <v>0.03483261322820332</v>
       </c>
     </row>
     <row r="13">
@@ -4052,19 +4052,19 @@
         <v>22187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14046</v>
+        <v>14147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33370</v>
+        <v>32693</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02273091660080623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01438975247322117</v>
+        <v>0.01449351488304314</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03418718129416653</v>
+        <v>0.03349352100306654</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4073,19 +4073,19 @@
         <v>18127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11015</v>
+        <v>10880</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28743</v>
+        <v>28929</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01656519086761567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01006602988434011</v>
+        <v>0.009943086179951363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02626746288742103</v>
+        <v>0.02643665838592413</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -4094,19 +4094,19 @@
         <v>40314</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28581</v>
+        <v>28835</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55445</v>
+        <v>55393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01947209152065519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01380491339292053</v>
+        <v>0.01392754407067767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02678042279176985</v>
+        <v>0.02675526628236381</v>
       </c>
     </row>
     <row r="14">
@@ -4123,19 +4123,19 @@
         <v>11106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5129</v>
+        <v>5024</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20033</v>
+        <v>20114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01137824677943897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005254525989844664</v>
+        <v>0.005147543351219782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02052338791498185</v>
+        <v>0.02060656490727542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -4144,19 +4144,19 @@
         <v>18143</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11078</v>
+        <v>10092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29607</v>
+        <v>29675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01658049340983221</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01012332685489294</v>
+        <v>0.009222335491003243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02705674135377342</v>
+        <v>0.02711846785414409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -4165,19 +4165,19 @@
         <v>29250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19652</v>
+        <v>19807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43483</v>
+        <v>42979</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01412783580202496</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009492100419332183</v>
+        <v>0.009567060991062439</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02100285753984254</v>
+        <v>0.02075908983133989</v>
       </c>
     </row>
     <row r="15">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4962</v>
+        <v>4104</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.000841960363761869</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005083214190140186</v>
+        <v>0.004204619865639115</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4262,19 +4262,19 @@
         <v>4165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10331</v>
+        <v>10289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003806125496083235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0009515096899829845</v>
+        <v>0.0009542555140147539</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009440948296071318</v>
+        <v>0.009402446192880666</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -4283,19 +4283,19 @@
         <v>4987</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1841</v>
+        <v>1864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10901</v>
+        <v>11114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002408636549651752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008893321818893832</v>
+        <v>0.0009002992655851783</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005265349620503317</v>
+        <v>0.005368171421999545</v>
       </c>
     </row>
     <row r="17">
@@ -4312,19 +4312,19 @@
         <v>950207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>937158</v>
+        <v>937034</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>959263</v>
+        <v>958910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9734806763997013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9601128517748457</v>
+        <v>0.9599855715826874</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9827588901128144</v>
+        <v>0.9823973288484816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>990</v>
@@ -4333,19 +4333,19 @@
         <v>1059374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1043501</v>
+        <v>1044121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1069966</v>
+        <v>1070150</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9681176728587401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.953611414692871</v>
+        <v>0.9541783789006469</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9777967056462271</v>
+        <v>0.9779652171421258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1890</v>
@@ -4354,19 +4354,19 @@
         <v>2009581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1990845</v>
+        <v>1990956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2024718</v>
+        <v>2024982</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9706461211177265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9615962211013181</v>
+        <v>0.9616499875460757</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9779574271051151</v>
+        <v>0.9780848253868326</v>
       </c>
     </row>
     <row r="18">
@@ -4387,19 +4387,19 @@
         <v>16534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9713</v>
+        <v>10004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25576</v>
+        <v>27515</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01868010515156433</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01097406841752503</v>
+        <v>0.01130242443242471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02889537258068534</v>
+        <v>0.0310859155989889</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -4408,19 +4408,19 @@
         <v>6166</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2899</v>
+        <v>2927</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13097</v>
+        <v>13090</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007040745785465295</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003309650298485736</v>
+        <v>0.003341630342278747</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01495475842450905</v>
+        <v>0.01494674550344336</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -4429,19 +4429,19 @@
         <v>22700</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14534</v>
+        <v>14555</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33727</v>
+        <v>33480</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01289122514897065</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008253530394774954</v>
+        <v>0.00826576036444795</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01915326260344961</v>
+        <v>0.01901301651154811</v>
       </c>
     </row>
     <row r="19">
@@ -4458,19 +4458,19 @@
         <v>35128</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24810</v>
+        <v>24074</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49489</v>
+        <v>49558</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03968729221867515</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02802983623417272</v>
+        <v>0.02719892709658404</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05591267883426989</v>
+        <v>0.05599055167112155</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -4479,19 +4479,19 @@
         <v>31805</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21853</v>
+        <v>21923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45999</v>
+        <v>46476</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03631609213747275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0249521536834406</v>
+        <v>0.02503217112175445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05252235772924196</v>
+        <v>0.0530673935514286</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -4500,19 +4500,19 @@
         <v>66933</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51867</v>
+        <v>52116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>85289</v>
+        <v>89106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03801061293410423</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0294543730690589</v>
+        <v>0.02959594273521984</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04843453271450428</v>
+        <v>0.05060249084956157</v>
       </c>
     </row>
     <row r="20">
@@ -4529,19 +4529,19 @@
         <v>36802</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26352</v>
+        <v>26405</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51521</v>
+        <v>51514</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0415791439375108</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02977189648409339</v>
+        <v>0.02983227693111552</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05820777201163864</v>
+        <v>0.05820089152510476</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4550,19 +4550,19 @@
         <v>31954</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21555</v>
+        <v>22889</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43823</v>
+        <v>47145</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03648558719322231</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02461170344813019</v>
+        <v>0.02613471512421146</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05003747271115199</v>
+        <v>0.05383074120755872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>63</v>
@@ -4571,19 +4571,19 @@
         <v>68756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53574</v>
+        <v>53172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87676</v>
+        <v>88173</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03904584396354754</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03042428292578554</v>
+        <v>0.03019567393439999</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0497901806586938</v>
+        <v>0.05007259817200702</v>
       </c>
     </row>
     <row r="21">
@@ -4600,19 +4600,19 @@
         <v>19650</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11508</v>
+        <v>12624</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31237</v>
+        <v>32382</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02220068418348917</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01300159855451132</v>
+        <v>0.01426307696736333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03529155947362585</v>
+        <v>0.0365848647747781</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -4621,19 +4621,19 @@
         <v>12212</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7079</v>
+        <v>6215</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21016</v>
+        <v>20387</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01394424620322239</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00808306698209035</v>
+        <v>0.00709618291214649</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02399636297518629</v>
+        <v>0.0232787766650379</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -4642,19 +4642,19 @@
         <v>31862</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22047</v>
+        <v>21792</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46481</v>
+        <v>45012</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01809431310126009</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01252043197201302</v>
+        <v>0.01237558337454239</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02639601107300522</v>
+        <v>0.02556155391474525</v>
       </c>
     </row>
     <row r="22">
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8148</v>
+        <v>7434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00276080615357306</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009205639781833665</v>
+        <v>0.008399173418875172</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9742</v>
+        <v>8594</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001387708628978538</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005532136372418415</v>
+        <v>0.004880222370014942</v>
       </c>
     </row>
     <row r="23">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5939</v>
+        <v>5321</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001214543160986571</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.006781390857489394</v>
+        <v>0.006075289482078982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5879</v>
+        <v>5345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0006040576973162465</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.003338829121555126</v>
+        <v>0.003035550091849395</v>
       </c>
     </row>
     <row r="24">
@@ -4797,19 +4797,19 @@
         <v>823615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>806055</v>
+        <v>805272</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>838021</v>
+        <v>838533</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9305178714230946</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.910678150386072</v>
+        <v>0.909794083883205</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.94679365103671</v>
+        <v>0.9473714136327035</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>791</v>
@@ -4818,19 +4818,19 @@
         <v>842813</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>828886</v>
+        <v>830411</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>852715</v>
+        <v>853377</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9623399399974759</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9464372530133532</v>
+        <v>0.948179043614568</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9736458145153297</v>
+        <v>0.9744012997666373</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1567</v>
@@ -4839,19 +4839,19 @@
         <v>1666429</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1643735</v>
+        <v>1643411</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1684279</v>
+        <v>1684405</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9463446992249704</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9334570581534396</v>
+        <v>0.9332729733326817</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9564817738812544</v>
+        <v>0.9565529812276635</v>
       </c>
     </row>
     <row r="25">
@@ -4872,19 +4872,19 @@
         <v>7357</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2981</v>
+        <v>2933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17868</v>
+        <v>17741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01462573768616959</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005925292857258972</v>
+        <v>0.005830620715134133</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03552067628563903</v>
+        <v>0.03526884913490638</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4893,19 +4893,19 @@
         <v>2925</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7874</v>
+        <v>7861</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006461323729631486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002121909968570778</v>
+        <v>0.002110818240737364</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01739184226348641</v>
+        <v>0.0173624958374904</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -4914,19 +4914,19 @@
         <v>10282</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5021</v>
+        <v>5041</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19790</v>
+        <v>19610</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01075831542096987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005253922805538081</v>
+        <v>0.005274499415889098</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02070627830736807</v>
+        <v>0.02051776913860511</v>
       </c>
     </row>
     <row r="26">
@@ -4943,19 +4943,19 @@
         <v>35767</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24647</v>
+        <v>25547</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52838</v>
+        <v>51562</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07110342378609343</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0489973790683792</v>
+        <v>0.05078658704039836</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.105041751816354</v>
+        <v>0.1025038242235713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -4964,19 +4964,19 @@
         <v>28709</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18698</v>
+        <v>19641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40408</v>
+        <v>42386</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06341280229222808</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04129973367322133</v>
+        <v>0.04338315993272312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08925349599849236</v>
+        <v>0.09362231795060005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -4985,19 +4985,19 @@
         <v>64476</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50201</v>
+        <v>49409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>84314</v>
+        <v>84254</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06746043349224874</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05252498512117782</v>
+        <v>0.0516962392567641</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08821714929817234</v>
+        <v>0.08815367785805826</v>
       </c>
     </row>
     <row r="27">
@@ -5014,19 +5014,19 @@
         <v>23973</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14649</v>
+        <v>15140</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36753</v>
+        <v>36631</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04765733573904854</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02912277073515413</v>
+        <v>0.03009754732581187</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07306391264753544</v>
+        <v>0.0728211797859606</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -5035,19 +5035,19 @@
         <v>17827</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10303</v>
+        <v>10063</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29513</v>
+        <v>28326</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03937705255869109</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02275653991775256</v>
+        <v>0.02222765784570904</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06518793133663113</v>
+        <v>0.0625669558673552</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>35</v>
@@ -5056,19 +5056,19 @@
         <v>41800</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29580</v>
+        <v>28941</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>57466</v>
+        <v>56893</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04373502708292893</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0309490195903899</v>
+        <v>0.03028062019890827</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06012655876671864</v>
+        <v>0.05952646985878045</v>
       </c>
     </row>
     <row r="28">
@@ -5085,19 +5085,19 @@
         <v>28761</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17915</v>
+        <v>19214</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41364</v>
+        <v>41776</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05717590628829313</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03561487722045992</v>
+        <v>0.03819619102427991</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08223124892285709</v>
+        <v>0.08305072660330361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -5106,19 +5106,19 @@
         <v>24726</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15994</v>
+        <v>14793</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39207</v>
+        <v>37076</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05461538850964711</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03532652827434234</v>
+        <v>0.03267430705953266</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0865992788377474</v>
+        <v>0.08189294800590578</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -5127,19 +5127,19 @@
         <v>53487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39383</v>
+        <v>39541</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>71761</v>
+        <v>71115</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05596300803003599</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04120554206282192</v>
+        <v>0.04137134690335823</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07508242826968833</v>
+        <v>0.07440656071011791</v>
       </c>
     </row>
     <row r="29">
@@ -5216,19 +5216,19 @@
         <v>4118</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11521</v>
+        <v>11744</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009094779571052272</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002344634090533387</v>
+        <v>0.002358722103788752</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02544691440476195</v>
+        <v>0.02594010415173514</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -5237,19 +5237,19 @@
         <v>4118</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1051</v>
+        <v>1064</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11675</v>
+        <v>11845</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004308129548233419</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001099941147861801</v>
+        <v>0.001113344710960798</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01221563041276291</v>
+        <v>0.01239363547145293</v>
       </c>
     </row>
     <row r="31">
@@ -5266,19 +5266,19 @@
         <v>448158</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>431585</v>
+        <v>430538</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>463491</v>
+        <v>462693</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.8909284752546394</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8579830522003105</v>
+        <v>0.8559006992107591</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9214108630161196</v>
+        <v>0.919825108335382</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>379</v>
@@ -5287,19 +5287,19 @@
         <v>410787</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>394480</v>
+        <v>394301</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>422590</v>
+        <v>422534</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9073423753397227</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8713236138890756</v>
+        <v>0.8709291168712469</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9334143777832222</v>
+        <v>0.9332902783285794</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>797</v>
@@ -5308,19 +5308,19 @@
         <v>858943</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>836121</v>
+        <v>836588</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>878061</v>
+        <v>879940</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.8987036178412031</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.87482510597453</v>
+        <v>0.8753137118932469</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9187069142362817</v>
+        <v>0.9206722845067037</v>
       </c>
     </row>
     <row r="32">
@@ -5341,19 +5341,19 @@
         <v>38242</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27644</v>
+        <v>27126</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53750</v>
+        <v>53880</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0112206741539479</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008111131664997023</v>
+        <v>0.007958994646343285</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0157710683641395</v>
+        <v>0.0158091759976612</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -5362,19 +5362,19 @@
         <v>13076</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7082</v>
+        <v>7059</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22593</v>
+        <v>21956</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003691032117583445</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001999044002790111</v>
+        <v>0.001992403096523055</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.006377387037827121</v>
+        <v>0.006197378763075197</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>48</v>
@@ -5383,19 +5383,19 @@
         <v>51318</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39615</v>
+        <v>38522</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68742</v>
+        <v>67619</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.007382972318626288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005699303193213012</v>
+        <v>0.005542059604704299</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00988962613525495</v>
+        <v>0.00972804467132939</v>
       </c>
     </row>
     <row r="33">
@@ -5412,19 +5412,19 @@
         <v>111227</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>89795</v>
+        <v>89848</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>134881</v>
+        <v>135629</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03263557513216787</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02634692964598926</v>
+        <v>0.02636250335086255</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03957592753112738</v>
+        <v>0.03979530216195039</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>106</v>
@@ -5433,19 +5433,19 @@
         <v>117750</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>97075</v>
+        <v>96393</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>143458</v>
+        <v>144259</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03323725968069851</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02740127242553549</v>
+        <v>0.02720868603174263</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04049381162510652</v>
+        <v>0.0407198102214695</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>204</v>
@@ -5454,19 +5454,19 @@
         <v>228978</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>198446</v>
+        <v>198912</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>263209</v>
+        <v>258910</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03294224122399919</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02854967995686933</v>
+        <v>0.02861683073082744</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0378669727422598</v>
+        <v>0.03724850394953934</v>
       </c>
     </row>
     <row r="34">
@@ -5483,19 +5483,19 @@
         <v>88978</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>70038</v>
+        <v>70017</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>111821</v>
+        <v>108724</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02610737267563087</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02055007406571016</v>
+        <v>0.02054391430458264</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0328097024143016</v>
+        <v>0.03190103838434014</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>67</v>
@@ -5504,19 +5504,19 @@
         <v>74178</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>58933</v>
+        <v>57719</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>95922</v>
+        <v>94317</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02093811567069663</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01663503297897836</v>
+        <v>0.0162924023339976</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02707581709056837</v>
+        <v>0.02662286380624583</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>148</v>
@@ -5525,19 +5525,19 @@
         <v>163156</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>135078</v>
+        <v>137458</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>189678</v>
+        <v>191320</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02347270996533506</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01943321132914274</v>
+        <v>0.01977558547120807</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02728826928688752</v>
+        <v>0.02752458306408091</v>
       </c>
     </row>
     <row r="35">
@@ -5554,19 +5554,19 @@
         <v>75091</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>57748</v>
+        <v>58040</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>98831</v>
+        <v>95833</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02203277273712917</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01694397694921864</v>
+        <v>0.01702968659025274</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02899821002014455</v>
+        <v>0.0281187174447312</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>56</v>
@@ -5575,19 +5575,19 @@
         <v>66933</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>51379</v>
+        <v>51497</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>86077</v>
+        <v>87999</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01889305519754888</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01450262072208526</v>
+        <v>0.01453613218184087</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02429688938149106</v>
+        <v>0.02483938313462048</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>121</v>
@@ -5596,19 +5596,19 @@
         <v>142024</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>119644</v>
+        <v>117634</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>172195</v>
+        <v>169494</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02043252405255073</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01721278743164186</v>
+        <v>0.01692358610051593</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02477315658340679</v>
+        <v>0.02438453916100515</v>
       </c>
     </row>
     <row r="36">
@@ -5625,19 +5625,19 @@
         <v>3712</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10022</v>
+        <v>9914</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.00108909247923989</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0003537989725087428</v>
+        <v>0.0003554038700247437</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.002940586664078107</v>
+        <v>0.002908892917754981</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5990</v>
+        <v>5986</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0003374768658077597</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.001690696206079132</v>
+        <v>0.001689726618711919</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -5667,19 +5667,19 @@
         <v>4907</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1265</v>
+        <v>1212</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>12202</v>
+        <v>12247</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0007060096440673456</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0001819721665467755</v>
+        <v>0.0001743849299972065</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.001755480914630513</v>
+        <v>0.001761913267959267</v>
       </c>
     </row>
     <row r="37">
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4117</v>
+        <v>4127</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0002411358265242547</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.001207915134689929</v>
+        <v>0.001210968750275921</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -5717,19 +5717,19 @@
         <v>11382</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>5885</v>
+        <v>6150</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20333</v>
+        <v>21232</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.00321274794453396</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001661127612126867</v>
+        <v>0.001735900791121329</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.005739412486000534</v>
+        <v>0.005993193802940354</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -5738,19 +5738,19 @@
         <v>12204</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6243</v>
+        <v>6487</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>21631</v>
+        <v>21805</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001755704676420879</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0008981650139501097</v>
+        <v>0.0009332566750993566</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.003111932697276304</v>
+        <v>0.003136946828946374</v>
       </c>
     </row>
     <row r="38">
@@ -5767,19 +5767,19 @@
         <v>3248614</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3217797</v>
+        <v>3217433</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3272717</v>
+        <v>3272370</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9531859426413271</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9441437083905542</v>
+        <v>0.9440369980020977</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.96025813448317</v>
+        <v>0.9601562331272125</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3174</v>
@@ -5788,19 +5788,19 @@
         <v>3412860</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3386000</v>
+        <v>3386531</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3436706</v>
+        <v>3432745</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9633438840727466</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9557623101354862</v>
+        <v>0.9559120529057693</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9700748774292953</v>
+        <v>0.9689569004974278</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6231</v>
@@ -5809,19 +5809,19 @@
         <v>6661474</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6620058</v>
+        <v>6620009</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6698594</v>
+        <v>6694004</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9583632339768486</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9524049356185248</v>
+        <v>0.9523978524126537</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9637035745643933</v>
+        <v>0.963043246173551</v>
       </c>
     </row>
     <row r="39">
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4959</v>
+        <v>5900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0008724436071849584</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00439960357880638</v>
+        <v>0.005234711386450774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6683</v>
+        <v>6533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001539034323093167</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005324861554430156</v>
+        <v>0.005205624242082132</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6124,19 +6124,19 @@
         <v>2915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7928</v>
+        <v>7661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00122364336649844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0003693451324427238</v>
+        <v>0.0003697192271495711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003327979590345754</v>
+        <v>0.003216215963504966</v>
       </c>
     </row>
     <row r="5">
@@ -6153,19 +6153,19 @@
         <v>9552</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4692</v>
+        <v>4666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19459</v>
+        <v>20075</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008475511184361812</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004163052019671464</v>
+        <v>0.00413957695816723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01726533721446424</v>
+        <v>0.01781140926362097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -6174,19 +6174,19 @@
         <v>20567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13113</v>
+        <v>13096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31488</v>
+        <v>32948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01638802081153595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01044823454847938</v>
+        <v>0.01043457186671137</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02508977929596916</v>
+        <v>0.02625254505065024</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -6195,19 +6195,19 @@
         <v>30120</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20225</v>
+        <v>19807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43677</v>
+        <v>42795</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01264429333255456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008490306074455297</v>
+        <v>0.008315012947736976</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01833559443801112</v>
+        <v>0.01796533372014861</v>
       </c>
     </row>
     <row r="6">
@@ -6224,19 +6224,19 @@
         <v>7637</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3050</v>
+        <v>3578</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14526</v>
+        <v>14930</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00677575779659504</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002706230953699436</v>
+        <v>0.003174641460779412</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01288862456362054</v>
+        <v>0.01324652467818879</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -6245,19 +6245,19 @@
         <v>4277</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1088</v>
+        <v>1122</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9769</v>
+        <v>9859</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003407569128125315</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0008671027078514952</v>
+        <v>0.0008939245653569968</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007783667271881171</v>
+        <v>0.007855614708660858</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -6266,19 +6266,19 @@
         <v>11913</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6356</v>
+        <v>6109</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21312</v>
+        <v>20471</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005001195052982131</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002668131344179899</v>
+        <v>0.002564497357333531</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008946921468821645</v>
+        <v>0.008593553404745899</v>
       </c>
     </row>
     <row r="7">
@@ -6295,19 +6295,19 @@
         <v>5669</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1849</v>
+        <v>2167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12542</v>
+        <v>13103</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005029527179480155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001640252432191441</v>
+        <v>0.001922827294960895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01112796520528744</v>
+        <v>0.01162538721974365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6316,19 +6316,19 @@
         <v>4291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10833</v>
+        <v>10491</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003418765556162889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0008857495437961083</v>
+        <v>0.000888939370803709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00863150502885264</v>
+        <v>0.008358890983090082</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -6337,19 +6337,19 @@
         <v>9959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4661</v>
+        <v>5049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18068</v>
+        <v>19564</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004180881854965441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001956485192818104</v>
+        <v>0.002119395828898144</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007585100421359741</v>
+        <v>0.008213036117963248</v>
       </c>
     </row>
     <row r="8">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9626</v>
+        <v>10015</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002421644204488452</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008541127469557565</v>
+        <v>0.008885986388857466</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8152</v>
+        <v>10052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.001145777557290284</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.003422124641730593</v>
+        <v>0.004220028446579732</v>
       </c>
     </row>
     <row r="9">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4646</v>
+        <v>4769</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.000844148481332423</v>
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004122361341064678</v>
+        <v>0.004231304944151206</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8127</v>
+        <v>8031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001289967696276891</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006475262823077746</v>
+        <v>0.006398982023004708</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9014</v>
+        <v>9680</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001079032642256415</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003784169253040665</v>
+        <v>0.004063454482190166</v>
       </c>
     </row>
     <row r="10">
@@ -6500,19 +6500,19 @@
         <v>1109379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1098184</v>
+        <v>1097371</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1116356</v>
+        <v>1116994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9843096418328473</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.974376444369326</v>
+        <v>0.9736550754937009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9904999901465844</v>
+        <v>0.9910658754060224</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1176</v>
@@ -6521,19 +6521,19 @@
         <v>1246030</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1238155</v>
+        <v>1236859</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1251385</v>
+        <v>1251066</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9928314025836328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9865562842474418</v>
+        <v>0.9855237891302959</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9970980208062949</v>
+        <v>0.9968440056874084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2226</v>
@@ -6542,19 +6542,19 @@
         <v>2355409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2343795</v>
+        <v>2342354</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2365212</v>
+        <v>2364822</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9887994138221335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9839237500846959</v>
+        <v>0.9833190357910078</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9929148289524815</v>
+        <v>0.9927510514932474</v>
       </c>
     </row>
     <row r="11">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5633</v>
+        <v>5684</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.001145952592792247</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.006225588509604982</v>
+        <v>0.006282192875797887</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -6596,19 +6596,19 @@
         <v>6699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2775</v>
+        <v>2881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13426</v>
+        <v>13430</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006664040229530624</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002760976157059016</v>
+        <v>0.002865859379769113</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0133560207082745</v>
+        <v>0.01335997481796985</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -6617,19 +6617,19 @@
         <v>7736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3792</v>
+        <v>3782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15257</v>
+        <v>14712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004049961985672756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001985186569448886</v>
+        <v>0.001980119964395645</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007987973781853602</v>
+        <v>0.007702228219530498</v>
       </c>
     </row>
     <row r="12">
@@ -6646,19 +6646,19 @@
         <v>26455</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17386</v>
+        <v>17511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38313</v>
+        <v>37928</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02923711677796605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01921468321080578</v>
+        <v>0.01935217302789577</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0423425624511779</v>
+        <v>0.04191624076699663</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -6667,19 +6667,19 @@
         <v>46982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>35093</v>
+        <v>33542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64201</v>
+        <v>61514</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04673852029423105</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03491101708217928</v>
+        <v>0.03336840907395316</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06386896546784468</v>
+        <v>0.06119516258536894</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>66</v>
@@ -6688,19 +6688,19 @@
         <v>73437</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58265</v>
+        <v>57044</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92091</v>
+        <v>92227</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03844759757233535</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03050463038731372</v>
+        <v>0.02986515171604908</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04821409678602584</v>
+        <v>0.04828483660278776</v>
       </c>
     </row>
     <row r="13">
@@ -6717,19 +6717,19 @@
         <v>12461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6749</v>
+        <v>6758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21158</v>
+        <v>20275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01377170038263947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007458293554077466</v>
+        <v>0.007468836697922391</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02338349346039503</v>
+        <v>0.02240705307851498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -6738,19 +6738,19 @@
         <v>7617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14989</v>
+        <v>15314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007577364325197788</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003078503296254601</v>
+        <v>0.003074774199259315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01491170690587474</v>
+        <v>0.01523424927399574</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -6759,19 +6759,19 @@
         <v>20078</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12991</v>
+        <v>12521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31211</v>
+        <v>30361</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01051180107011213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006801147290283218</v>
+        <v>0.006555416869571367</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01634040432163561</v>
+        <v>0.01589541333758592</v>
       </c>
     </row>
     <row r="14">
@@ -6788,19 +6788,19 @@
         <v>15195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8198</v>
+        <v>8086</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24873</v>
+        <v>24695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01679322465330521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009060252685159758</v>
+        <v>0.008936424955604183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02748820483083276</v>
+        <v>0.0272921405010008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -6809,19 +6809,19 @@
         <v>12608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6975</v>
+        <v>6623</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22426</v>
+        <v>22543</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01254307069909961</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006939077989569794</v>
+        <v>0.006588911106977064</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02231020041286809</v>
+        <v>0.02242625167822515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -6830,19 +6830,19 @@
         <v>27804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18121</v>
+        <v>18894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41127</v>
+        <v>40270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01455649196315593</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009487092117420859</v>
+        <v>0.009892132499177708</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02153203352926209</v>
+        <v>0.0210833586334754</v>
       </c>
     </row>
     <row r="15">
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9951</v>
+        <v>10730</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003296329049491691</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01099790696168767</v>
+        <v>0.01185889369441496</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10870</v>
+        <v>9649</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001561566727484262</v>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005691046774018706</v>
+        <v>0.005051775643340744</v>
       </c>
     </row>
     <row r="16">
@@ -6969,19 +6969,19 @@
         <v>872073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>859783</v>
+        <v>859056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>882216</v>
+        <v>882309</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9637809304609695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9501981638335093</v>
+        <v>0.9493949852406807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9749906392672641</v>
+        <v>0.975093484018574</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>920</v>
@@ -6990,19 +6990,19 @@
         <v>972622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>960212</v>
+        <v>958799</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>982838</v>
+        <v>982066</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9675867814998669</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9552413369287057</v>
+        <v>0.9538354224901956</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9777501646103534</v>
+        <v>0.9769820119805613</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1767</v>
@@ -7011,19 +7011,19 @@
         <v>1844696</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1825606</v>
+        <v>1826326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1858547</v>
+        <v>1860008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9657838394200948</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9557893458249852</v>
+        <v>0.9561663279254665</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9730350657000066</v>
+        <v>0.9738001888678811</v>
       </c>
     </row>
     <row r="18">
@@ -7044,19 +7044,19 @@
         <v>10069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4123</v>
+        <v>4344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20117</v>
+        <v>20169</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01222316544651778</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005005392838985736</v>
+        <v>0.005273112039129847</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02442154584479619</v>
+        <v>0.0244836624417984</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -7065,19 +7065,19 @@
         <v>3072</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9135</v>
+        <v>8570</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.003983697855294455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001166506248521983</v>
+        <v>0.001163656900882211</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01184722140714843</v>
+        <v>0.01111505460601946</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -7086,19 +7086,19 @@
         <v>13141</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6312</v>
+        <v>6961</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23636</v>
+        <v>24168</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008239567831240358</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003957859905709237</v>
+        <v>0.004364737516321122</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01482037238572463</v>
+        <v>0.0151543192380682</v>
       </c>
     </row>
     <row r="19">
@@ -7115,19 +7115,19 @@
         <v>40059</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27997</v>
+        <v>29225</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53623</v>
+        <v>53412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04862937723804713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03398723582706017</v>
+        <v>0.0354772829575726</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06509609553044808</v>
+        <v>0.06483969007538289</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -7136,19 +7136,19 @@
         <v>37479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26857</v>
+        <v>27775</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52130</v>
+        <v>51092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04860694421866138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03483076550432505</v>
+        <v>0.03602210326950375</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06760784086553079</v>
+        <v>0.06626254650033854</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -7157,19 +7157,19 @@
         <v>77538</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62335</v>
+        <v>62053</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97436</v>
+        <v>95824</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04861853137676554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03908598161227482</v>
+        <v>0.03890938230106424</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0610955265582129</v>
+        <v>0.06008438651954515</v>
       </c>
     </row>
     <row r="20">
@@ -7186,19 +7186,19 @@
         <v>30249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20353</v>
+        <v>20911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42792</v>
+        <v>43408</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03672092829216085</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02470795382569735</v>
+        <v>0.0253852703301243</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05194782935317447</v>
+        <v>0.05269530227041491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -7207,19 +7207,19 @@
         <v>12224</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6360</v>
+        <v>6381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20685</v>
+        <v>20374</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01585338393339784</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008247906017958948</v>
+        <v>0.008275001684140837</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02682672299671945</v>
+        <v>0.02642378184844127</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -7228,19 +7228,19 @@
         <v>42473</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29926</v>
+        <v>31128</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57076</v>
+        <v>57064</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02663193904329094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01876472545330245</v>
+        <v>0.01951796472116125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03578849273409331</v>
+        <v>0.03578099710423321</v>
       </c>
     </row>
     <row r="21">
@@ -7257,19 +7257,19 @@
         <v>24736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15450</v>
+        <v>16096</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36692</v>
+        <v>36745</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0300282101459885</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01875489402278468</v>
+        <v>0.01953972404676408</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04454247129275792</v>
+        <v>0.04460664528248327</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -7278,19 +7278,19 @@
         <v>25414</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16663</v>
+        <v>16047</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38132</v>
+        <v>36098</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03295984322738937</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02161076998592436</v>
+        <v>0.0208116750415838</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04945396882098001</v>
+        <v>0.04681601170440967</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -7299,19 +7299,19 @@
         <v>50150</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37368</v>
+        <v>37360</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67597</v>
+        <v>66748</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03144558892958573</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02343061734582435</v>
+        <v>0.0234257719478415</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04238548259620711</v>
+        <v>0.04185293053508253</v>
       </c>
     </row>
     <row r="22">
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7489</v>
+        <v>7102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002673717526968381</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009712284440934497</v>
+        <v>0.009210860714481078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7408</v>
+        <v>6649</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001292682402889982</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004644784034779393</v>
+        <v>0.004169384309985128</v>
       </c>
     </row>
     <row r="23">
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5268</v>
+        <v>5846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.001272481558926025</v>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.006394811643000996</v>
+        <v>0.007096970907773884</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4891</v>
+        <v>5213</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00126627758034363</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.006343823430910478</v>
+        <v>0.006760217316467514</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7167</v>
+        <v>7151</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.001269482074552497</v>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.004494139963306324</v>
+        <v>0.004483900579205022</v>
       </c>
     </row>
     <row r="24">
@@ -7462,19 +7462,19 @@
         <v>763700</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>747257</v>
+        <v>745540</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>778250</v>
+        <v>778031</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9270919298042993</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9071307257526348</v>
+        <v>0.9050457228849597</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.944754611824964</v>
+        <v>0.9444881620849668</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>687</v>
@@ -7483,19 +7483,19 @@
         <v>728395</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>713029</v>
+        <v>715163</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>739907</v>
+        <v>741127</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9446686369807583</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9247402158479053</v>
+        <v>0.927506880130802</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9595988437415</v>
+        <v>0.9611809882052627</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1418</v>
@@ -7504,19 +7504,19 @@
         <v>1492096</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1470552</v>
+        <v>1468442</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1511892</v>
+        <v>1507972</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9355898731504393</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9220812916134133</v>
+        <v>0.9207585192534832</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9480025716087062</v>
+        <v>0.9455451707319963</v>
       </c>
     </row>
     <row r="25">
@@ -7537,19 +7537,19 @@
         <v>7059</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2533</v>
+        <v>2512</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15315</v>
+        <v>14892</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01393064165221259</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004998060054471861</v>
+        <v>0.004958370327814345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03022494029671795</v>
+        <v>0.02939012326079711</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -7571,19 +7571,19 @@
         <v>7059</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2704</v>
+        <v>2839</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15366</v>
+        <v>15623</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0070841826964006</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002713473826630249</v>
+        <v>0.002849144786407331</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01542179912342697</v>
+        <v>0.01567936572492633</v>
       </c>
     </row>
     <row r="26">
@@ -7600,19 +7600,19 @@
         <v>37873</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26795</v>
+        <v>26709</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52839</v>
+        <v>51397</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0747437606153938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05288146386063332</v>
+        <v>0.0527125406008802</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1042795875933197</v>
+        <v>0.1014353662740558</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -7621,19 +7621,19 @@
         <v>52727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38570</v>
+        <v>40759</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68164</v>
+        <v>69634</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1076716803735064</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0787630513480658</v>
+        <v>0.08323243323019429</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1391959372709111</v>
+        <v>0.1421980976527197</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>80</v>
@@ -7642,19 +7642,19 @@
         <v>90599</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>73144</v>
+        <v>72539</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>113245</v>
+        <v>112219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.090926766161903</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07340815989124956</v>
+        <v>0.07280148705326879</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.113654115398549</v>
+        <v>0.1126245941004365</v>
       </c>
     </row>
     <row r="27">
@@ -7671,19 +7671,19 @@
         <v>25934</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16124</v>
+        <v>16966</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36834</v>
+        <v>37139</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05118230875308916</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03182069297831378</v>
+        <v>0.03348326400483786</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07269418430687695</v>
+        <v>0.07329652105222223</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>19</v>
@@ -7692,19 +7692,19 @@
         <v>21826</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12901</v>
+        <v>13944</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>33423</v>
+        <v>33996</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04457120799821892</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02634507824812515</v>
+        <v>0.02847461352340531</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06825147382550638</v>
+        <v>0.06942288912737418</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>43</v>
@@ -7713,19 +7713,19 @@
         <v>47761</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>34973</v>
+        <v>34586</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>63203</v>
+        <v>62822</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04793316696185173</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03509903498138399</v>
+        <v>0.03471148171046469</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06343118665480167</v>
+        <v>0.06304912125003988</v>
       </c>
     </row>
     <row r="28">
@@ -7742,19 +7742,19 @@
         <v>24642</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15483</v>
+        <v>15798</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36482</v>
+        <v>36053</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04863305764884634</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03055650713564262</v>
+        <v>0.03117837036953542</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07199963260255003</v>
+        <v>0.07115318073055424</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -7763,19 +7763,19 @@
         <v>17280</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10012</v>
+        <v>10057</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28162</v>
+        <v>27101</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03528733586668813</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02044587170573781</v>
+        <v>0.02053716992243447</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05750813528301169</v>
+        <v>0.05534209441407472</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -7784,19 +7784,19 @@
         <v>41923</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29957</v>
+        <v>29657</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>57646</v>
+        <v>56099</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04207406785509769</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03006561983042015</v>
+        <v>0.02976450217839502</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05785478226464971</v>
+        <v>0.05630207487768716</v>
       </c>
     </row>
     <row r="29">
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5338</v>
+        <v>5088</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002082840829210098</v>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01053511437707813</v>
+        <v>0.01004088290205766</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5392</v>
+        <v>5453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002211258067967585</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0110110207745591</v>
+        <v>0.0111359271079276</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7426</v>
+        <v>8123</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002145953740755863</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.007453182643254624</v>
+        <v>0.008152594303061485</v>
       </c>
     </row>
     <row r="30">
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7772</v>
+        <v>5914</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002319747880311895</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01533840565620488</v>
+        <v>0.01167192717199573</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>5175</v>
+        <v>5219</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002125208411921943</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.010568299688496</v>
+        <v>0.01065802467992336</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8352</v>
+        <v>8163</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.002224138035563233</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.008381868240934329</v>
+        <v>0.008192761107441965</v>
       </c>
     </row>
     <row r="31">
@@ -7955,19 +7955,19 @@
         <v>453152</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>437953</v>
+        <v>438565</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>467090</v>
+        <v>466729</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.8943188679555989</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8643225403174017</v>
+        <v>0.865530221599603</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9218255000610764</v>
+        <v>0.9211131543954756</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>418</v>
@@ -7976,19 +7976,19 @@
         <v>449611</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>435338</v>
+        <v>434025</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>461385</v>
+        <v>460241</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9181398320070072</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.8889934465055749</v>
+        <v>0.8863120003691057</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9421820191727871</v>
+        <v>0.9398466378586411</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>842</v>
@@ -7997,19 +7997,19 @@
         <v>902763</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>880485</v>
+        <v>882038</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>920469</v>
+        <v>921474</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9060260998791145</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.8836682342184637</v>
+        <v>0.8852266272158381</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9237969063987099</v>
+        <v>0.9248048237385721</v>
       </c>
     </row>
     <row r="32">
@@ -8030,19 +8030,19 @@
         <v>19148</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10694</v>
+        <v>11449</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30090</v>
+        <v>32493</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005694741784202544</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003180497270028559</v>
+        <v>0.003405001273505077</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.00894913751301122</v>
+        <v>0.009663680525689319</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -8051,19 +8051,19 @@
         <v>11702</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6158</v>
+        <v>6237</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19466</v>
+        <v>20590</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003323475663988489</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001748923018483109</v>
+        <v>0.001771502742975724</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.005528450185044166</v>
+        <v>0.005847734105366639</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -8072,19 +8072,19 @@
         <v>30850</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20548</v>
+        <v>19956</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>44036</v>
+        <v>44418</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004481787335779396</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002985203895813196</v>
+        <v>0.002899132637478195</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006397417982883231</v>
+        <v>0.006453007832955037</v>
       </c>
     </row>
     <row r="33">
@@ -8101,19 +8101,19 @@
         <v>113939</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>93940</v>
+        <v>94203</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>138598</v>
+        <v>139657</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03388657098547032</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02793859611655677</v>
+        <v>0.02801672474288043</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04122037976880559</v>
+        <v>0.04153523101684178</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>144</v>
@@ -8122,19 +8122,19 @@
         <v>157755</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>133479</v>
+        <v>134564</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>183266</v>
+        <v>184778</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04480405995337319</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03790962080637844</v>
+        <v>0.03821771995220486</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0520497166723036</v>
+        <v>0.05247889849965263</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>249</v>
@@ -8143,19 +8143,19 @@
         <v>271694</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>241461</v>
+        <v>238523</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>304646</v>
+        <v>309438</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03947110521228794</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03507899076678051</v>
+        <v>0.0346521869181049</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04425835444516679</v>
+        <v>0.04495455706834164</v>
       </c>
     </row>
     <row r="34">
@@ -8172,19 +8172,19 @@
         <v>76281</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>61409</v>
+        <v>60081</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>97212</v>
+        <v>94601</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02268677217228252</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01826370616474168</v>
+        <v>0.01786868904585332</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02891166139305886</v>
+        <v>0.02813512721291363</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>42</v>
@@ -8193,19 +8193,19 @@
         <v>45944</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>34692</v>
+        <v>33733</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>61872</v>
+        <v>61409</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01304852452855656</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00985295312593727</v>
+        <v>0.0095805361364647</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01757243850550303</v>
+        <v>0.01744089610864041</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>114</v>
@@ -8214,19 +8214,19 @@
         <v>122225</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>101139</v>
+        <v>101517</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>145551</v>
+        <v>144614</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01775659784271128</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01469322365966817</v>
+        <v>0.0147481331237022</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0211453710302439</v>
+        <v>0.02100926736522764</v>
       </c>
     </row>
     <row r="35">
@@ -8243,19 +8243,19 @@
         <v>70242</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54429</v>
+        <v>54662</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>90788</v>
+        <v>89983</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0208907193500664</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01618776263652725</v>
+        <v>0.01625709556161122</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02700128247710798</v>
+        <v>0.02676171101958117</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>55</v>
@@ -8264,19 +8264,19 @@
         <v>59593</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>44783</v>
+        <v>45293</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78457</v>
+        <v>77483</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01692510663705633</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01271875631537644</v>
+        <v>0.01286370357623242</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02228254427427895</v>
+        <v>0.02200597946092761</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>119</v>
@@ -8285,19 +8285,19 @@
         <v>129835</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107876</v>
+        <v>107411</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>153162</v>
+        <v>154485</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01886222177235262</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0156719714307199</v>
+        <v>0.01560451248535374</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02225104012511372</v>
+        <v>0.02244330008578019</v>
       </c>
     </row>
     <row r="36">
@@ -8314,19 +8314,19 @@
         <v>6767</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2265</v>
+        <v>2345</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14129</v>
+        <v>15654</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002012685976630774</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0006736191237454303</v>
+        <v>0.0006975215134314511</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.004202203763588773</v>
+        <v>0.004655602760020241</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -8335,19 +8335,19 @@
         <v>3144</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8340</v>
+        <v>9332</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0008930565671822792</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.000240474613995503</v>
+        <v>0.0002412386994219293</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.002368629237775836</v>
+        <v>0.002650386096456078</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -8356,19 +8356,19 @@
         <v>9912</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4361</v>
+        <v>4232</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18711</v>
+        <v>18860</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001439971062349731</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0006335133297683531</v>
+        <v>0.0006148447854828546</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002718353022947618</v>
+        <v>0.002739933242215398</v>
       </c>
     </row>
     <row r="37">
@@ -8385,19 +8385,19 @@
         <v>3175</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8729</v>
+        <v>8467</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.000944288036667848</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0002817393886376498</v>
+        <v>0.0002831218836098761</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.002596063787383206</v>
+        <v>0.002518091212922087</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -8406,19 +8406,19 @@
         <v>3636</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10822</v>
+        <v>10627</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.001032672788590832</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0002766694632178792</v>
+        <v>0.0002770140003491688</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.003073525818474929</v>
+        <v>0.003018293404670703</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6</v>
@@ -8427,19 +8427,19 @@
         <v>6811</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2842</v>
+        <v>3051</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>14604</v>
+        <v>15066</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0009894987690710429</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0004129172332646954</v>
+        <v>0.0004432611493556426</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.002121595510991368</v>
+        <v>0.002188771089580323</v>
       </c>
     </row>
     <row r="38">
@@ -8456,19 +8456,19 @@
         <v>3198305</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3169975</v>
+        <v>3169649</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3222231</v>
+        <v>3221779</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9512057943209</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.94278011527559</v>
+        <v>0.9426833412381391</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9583217853473391</v>
+        <v>0.9581871506027763</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3201</v>
@@ -8477,19 +8477,19 @@
         <v>3396659</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3372866</v>
+        <v>3369170</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3418000</v>
+        <v>3417323</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9646891265391631</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9579317205282891</v>
+        <v>0.9568819154782775</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9707503596094407</v>
+        <v>0.9705579329795185</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6253</v>
@@ -8498,19 +8498,19 @@
         <v>6594964</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6560684</v>
+        <v>6555807</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6628808</v>
+        <v>6627678</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9581028134510148</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9531226795468846</v>
+        <v>0.9524142308871387</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.963019617202481</v>
+        <v>0.9628555359890481</v>
       </c>
     </row>
     <row r="39">
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9838</v>
+        <v>10636</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005558886611055198</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0197255721257272</v>
+        <v>0.02132592472600734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -8792,19 +8792,19 @@
         <v>2196</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6056</v>
+        <v>6108</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003521208871964449</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001118080310133618</v>
+        <v>0.00111058998871332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009711640116612063</v>
+        <v>0.009795414865633586</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -8813,19 +8813,19 @@
         <v>4968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12052</v>
+        <v>11456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004426717465697286</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001636384695303934</v>
+        <v>0.001638569118100761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01073823872331645</v>
+        <v>0.01020769101818007</v>
       </c>
     </row>
     <row r="5">
@@ -8842,19 +8842,19 @@
         <v>10521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4798</v>
+        <v>4844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19333</v>
+        <v>20526</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02109421743822744</v>
+        <v>0.02109421743822745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009620780433677017</v>
+        <v>0.00971335378965023</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03876372754379027</v>
+        <v>0.04115548545404029</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -8863,19 +8863,19 @@
         <v>22756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15892</v>
+        <v>14918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34736</v>
+        <v>33565</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03649254277352994</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02548484292864264</v>
+        <v>0.02392267512953751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0557039471251696</v>
+        <v>0.05382584930648852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -8884,19 +8884,19 @@
         <v>33277</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22577</v>
+        <v>23361</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46549</v>
+        <v>46075</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02964979445630474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0201166379475861</v>
+        <v>0.02081503086388762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04147543666123389</v>
+        <v>0.04105333029838196</v>
       </c>
     </row>
     <row r="6">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5724</v>
+        <v>5714</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002254994703489593</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01147664501987448</v>
+        <v>0.01145650418863433</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -8934,19 +8934,19 @@
         <v>1846</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5093</v>
+        <v>5493</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.00296074603654657</v>
+        <v>0.002960746036546571</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0009237301566686404</v>
+        <v>0.0009304081140195263</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.008168124059586964</v>
+        <v>0.008808281015283153</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -8955,19 +8955,19 @@
         <v>2971</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>677</v>
+        <v>1123</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7132</v>
+        <v>8140</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002647122402710014</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006032148030311107</v>
+        <v>0.00100040557114129</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006354754278439556</v>
+        <v>0.007252840623102655</v>
       </c>
     </row>
     <row r="7">
@@ -8984,19 +8984,19 @@
         <v>2329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7169</v>
+        <v>6436</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004670125883131422</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00117743372100035</v>
+        <v>0.001171941061721695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01437465317644892</v>
+        <v>0.01290421802548268</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -9005,19 +9005,19 @@
         <v>4385</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11449</v>
+        <v>10698</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007032741640200994</v>
+        <v>0.007032741640200996</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002208308224214777</v>
+        <v>0.002239007119514441</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01836035944867152</v>
+        <v>0.01715646073591694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -9026,19 +9026,19 @@
         <v>6715</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2618</v>
+        <v>3186</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13226</v>
+        <v>13541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005982836235301329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00233287433906007</v>
+        <v>0.002838914997047394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0117843311433691</v>
+        <v>0.01206499225549794</v>
       </c>
     </row>
     <row r="8">
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7455</v>
+        <v>9141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003653318640489491</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01494850444349407</v>
+        <v>0.01832779875277993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -9076,19 +9076,19 @@
         <v>3328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1185</v>
+        <v>792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9053</v>
+        <v>8304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005336215735749156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001899874003210013</v>
+        <v>0.00127043308647181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01451771185123136</v>
+        <v>0.01331633688572125</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -9097,19 +9097,19 @@
         <v>5150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1416</v>
+        <v>1943</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12834</v>
+        <v>13120</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004588365497759296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001262043710382749</v>
+        <v>0.001731096200668376</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01143531907606349</v>
+        <v>0.01168980801895296</v>
       </c>
     </row>
     <row r="9">
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4438</v>
+        <v>4013</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001399349487820264</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007116549752851601</v>
+        <v>0.006434853501244206</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4325</v>
+        <v>4377</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0007775028814857867</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003853952938874129</v>
+        <v>0.003900259403022787</v>
       </c>
     </row>
     <row r="10">
@@ -9189,19 +9189,19 @@
         <v>493597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>486011</v>
+        <v>485223</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>497552</v>
+        <v>497110</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9896908917833007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9744796178379298</v>
+        <v>0.9728997257974903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9976208365633423</v>
+        <v>0.996734263741021</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>851</v>
@@ -9210,19 +9210,19 @@
         <v>614386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>605892</v>
+        <v>606460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>618945</v>
+        <v>619146</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9852557691696479</v>
+        <v>0.9852557691696476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9716349555418244</v>
+        <v>0.972545306490316</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9925672264825932</v>
+        <v>0.9928886779225043</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1302</v>
@@ -9231,19 +9231,19 @@
         <v>1107984</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1096669</v>
+        <v>1097495</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1114854</v>
+        <v>1114518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9872266606231285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9771445912180763</v>
+        <v>0.9778804010573683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9933479895414404</v>
+        <v>0.9930481638707459</v>
       </c>
     </row>
     <row r="11">
@@ -9264,19 +9264,19 @@
         <v>7711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3250</v>
+        <v>3199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15832</v>
+        <v>15290</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.008031152576584537</v>
+        <v>0.008031152576584535</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003385268229546939</v>
+        <v>0.003332277058898845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01648896851381216</v>
+        <v>0.01592469494314837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -9285,19 +9285,19 @@
         <v>6100</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3268</v>
+        <v>2869</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10744</v>
+        <v>11089</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.005466519306487151</v>
+        <v>0.00546651930648715</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002928711176502748</v>
+        <v>0.002571488346157626</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.009628716841030368</v>
+        <v>0.009937617912772227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -9306,19 +9306,19 @@
         <v>13811</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8449</v>
+        <v>8109</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22075</v>
+        <v>22190</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006652653741061831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00406969858457194</v>
+        <v>0.003905930721428165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01063366124853865</v>
+        <v>0.0106887378645694</v>
       </c>
     </row>
     <row r="12">
@@ -9335,19 +9335,19 @@
         <v>27729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18452</v>
+        <v>18938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40113</v>
+        <v>39467</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02887996751676784</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01921788492585287</v>
+        <v>0.0197244508933076</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04177844840193481</v>
+        <v>0.04110537988386924</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>77</v>
@@ -9356,19 +9356,19 @@
         <v>59940</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47945</v>
+        <v>46752</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76491</v>
+        <v>75789</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05371683188342231</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04296732771029307</v>
+        <v>0.04189790731631659</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06854978342997457</v>
+        <v>0.06792088413891779</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -9377,19 +9377,19 @@
         <v>87669</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71811</v>
+        <v>70399</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>107917</v>
+        <v>106309</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04222986397434927</v>
+        <v>0.04222986397434926</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03459112696896904</v>
+        <v>0.03391124121961069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05198343632288197</v>
+        <v>0.05120876788197465</v>
       </c>
     </row>
     <row r="13">
@@ -9406,19 +9406,19 @@
         <v>10703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3935</v>
+        <v>4735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23592</v>
+        <v>26338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01114694552315707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004098220196527455</v>
+        <v>0.004931449334786646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02457181165415094</v>
+        <v>0.02743143462097455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -9427,19 +9427,19 @@
         <v>5626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2628</v>
+        <v>2806</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11002</v>
+        <v>11213</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005042188431375949</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002355421151360558</v>
+        <v>0.002514594523810695</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009860005311328553</v>
+        <v>0.01004887529008582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -9448,19 +9448,19 @@
         <v>16329</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8964</v>
+        <v>8604</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27994</v>
+        <v>27176</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007865618465487847</v>
+        <v>0.007865618465487846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004318185330105874</v>
+        <v>0.004144569443317208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01348454832424634</v>
+        <v>0.01309061849512308</v>
       </c>
     </row>
     <row r="14">
@@ -9477,19 +9477,19 @@
         <v>5402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2011</v>
+        <v>1939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12135</v>
+        <v>11467</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005626381983050992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002094276361982981</v>
+        <v>0.002019388096104234</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01263922636963729</v>
+        <v>0.01194314794743768</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -9498,19 +9498,19 @@
         <v>8241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4392</v>
+        <v>4243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14786</v>
+        <v>14570</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007385289224058351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003936140860268269</v>
+        <v>0.003802180195569165</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01325063191844984</v>
+        <v>0.01305737209001478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -9519,19 +9519,19 @@
         <v>13643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8065</v>
+        <v>8160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22746</v>
+        <v>21576</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.006571800422323219</v>
+        <v>0.006571800422323218</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003884810188858685</v>
+        <v>0.003930421921013799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01095679123848494</v>
+        <v>0.0103929281532864</v>
       </c>
     </row>
     <row r="15">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6488</v>
+        <v>5777</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001191021058961894</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.006757315191075502</v>
+        <v>0.006017347779973027</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -9585,16 +9585,16 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6071</v>
+        <v>5857</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.0005508433142507972</v>
+        <v>0.0005508433142507971</v>
       </c>
       <c r="V15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.002924440609467091</v>
+        <v>0.002821485038959644</v>
       </c>
     </row>
     <row r="16">
@@ -9624,19 +9624,19 @@
         <v>5847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1619</v>
+        <v>1461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17252</v>
+        <v>18417</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.005239961100889822</v>
+        <v>0.005239961100889821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001451258403470054</v>
+        <v>0.001309565757839141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01546122574107478</v>
+        <v>0.01650535947486199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -9645,19 +9645,19 @@
         <v>5847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1587</v>
+        <v>1605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19518</v>
+        <v>18327</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002816496362260248</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007645189805726116</v>
+        <v>0.0007729615923685336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009401956685271476</v>
+        <v>0.008827915196112902</v>
       </c>
     </row>
     <row r="17">
@@ -9674,19 +9674,19 @@
         <v>945644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>931661</v>
+        <v>931005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>953307</v>
+        <v>952712</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9849051723573155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9703419143661168</v>
+        <v>0.9696585713238168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9928863426611864</v>
+        <v>0.9922664742000387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1590</v>
@@ -9695,19 +9695,19 @@
         <v>1101867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1090690</v>
+        <v>1088779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1108263</v>
+        <v>1107842</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.987469601290489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9774528499681104</v>
+        <v>0.9757400126037508</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9932014063793752</v>
+        <v>0.9928239752697171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2489</v>
@@ -9716,19 +9716,19 @@
         <v>2047511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2031258</v>
+        <v>2032835</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2057556</v>
+        <v>2057501</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9862835613610681</v>
+        <v>0.986283561361068</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9784544935763637</v>
+        <v>0.9792140485865692</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9911221259724859</v>
+        <v>0.991095813738137</v>
       </c>
     </row>
     <row r="18">
@@ -9749,19 +9749,19 @@
         <v>14817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7336</v>
+        <v>7772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25984</v>
+        <v>26199</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01415852777065362</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007010226296393457</v>
+        <v>0.007426389652216089</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02482996303148983</v>
+        <v>0.02503543119859228</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -9770,19 +9770,19 @@
         <v>7106</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3578</v>
+        <v>3791</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12702</v>
+        <v>12337</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.006783241397545951</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003414840631422417</v>
+        <v>0.003618701183067494</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01212410809357646</v>
+        <v>0.01177562547601195</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -9791,19 +9791,19 @@
         <v>21923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13782</v>
+        <v>13664</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34408</v>
+        <v>34156</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01046883773052341</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006581323400503044</v>
+        <v>0.006525021392757081</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01643098473287044</v>
+        <v>0.01631055991258277</v>
       </c>
     </row>
     <row r="19">
@@ -9820,19 +9820,19 @@
         <v>55080</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41762</v>
+        <v>41982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71352</v>
+        <v>73005</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05263384159413068</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03990715605355938</v>
+        <v>0.04011721636300335</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06818313318656288</v>
+        <v>0.06976288663720306</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -9841,19 +9841,19 @@
         <v>86969</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>72652</v>
+        <v>72788</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102089</v>
+        <v>102854</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08301394017842964</v>
+        <v>0.08301394017842965</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06934788087863683</v>
+        <v>0.06947828691070684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09744682166511887</v>
+        <v>0.09817650671978879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>174</v>
@@ -9862,19 +9862,19 @@
         <v>142049</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121864</v>
+        <v>121700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>166357</v>
+        <v>166421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06783232223528712</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05819319806241881</v>
+        <v>0.05811486379808606</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07944005846479328</v>
+        <v>0.07947041411045862</v>
       </c>
     </row>
     <row r="20">
@@ -9891,19 +9891,19 @@
         <v>44663</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31730</v>
+        <v>32302</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62462</v>
+        <v>61548</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04267967891082305</v>
+        <v>0.04267967891082304</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03032096122099149</v>
+        <v>0.0308673835925572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05968816523097047</v>
+        <v>0.05881396681994476</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -9912,19 +9912,19 @@
         <v>24246</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17546</v>
+        <v>17341</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33183</v>
+        <v>33261</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02314320007923965</v>
+        <v>0.02314320007923966</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01674776828988838</v>
+        <v>0.01655211187812469</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03167435790807317</v>
+        <v>0.03174812818540236</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -9933,19 +9933,19 @@
         <v>68909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54489</v>
+        <v>52997</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88820</v>
+        <v>88599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0329060175616252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02601991879048268</v>
+        <v>0.02530760838470801</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04241380458020117</v>
+        <v>0.042308616223373</v>
       </c>
     </row>
     <row r="21">
@@ -9962,19 +9962,19 @@
         <v>26779</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17122</v>
+        <v>18140</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42665</v>
+        <v>42942</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0255892128794518</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01636144756258189</v>
+        <v>0.01733394773071198</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04077007230553701</v>
+        <v>0.04103428446555177</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -9983,19 +9983,19 @@
         <v>28926</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21020</v>
+        <v>20725</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40365</v>
+        <v>39840</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.02761020101874504</v>
+        <v>0.02761020101874505</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02006457375610323</v>
+        <v>0.01978257042939515</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03852932627545422</v>
+        <v>0.0380278232989025</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>65</v>
@@ -10004,19 +10004,19 @@
         <v>55704</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42482</v>
+        <v>42820</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73500</v>
+        <v>72838</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02660026783129221</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02028629364331358</v>
+        <v>0.02044760621232857</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03509831805751715</v>
+        <v>0.03478218181340274</v>
       </c>
     </row>
     <row r="22">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4857</v>
+        <v>5291</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0008589653935644508</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004640894772044496</v>
+        <v>0.005056037199358832</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5144</v>
+        <v>5073</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001404191910153849</v>
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.004910255835427048</v>
+        <v>0.004842431241811752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -10075,19 +10075,19 @@
         <v>2370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6303</v>
+        <v>6542</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001131729967860856</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0003380777346582838</v>
+        <v>0.000339447390479292</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003009884588319296</v>
+        <v>0.003124147107955154</v>
       </c>
     </row>
     <row r="23">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8122</v>
+        <v>10493</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002574069552366176</v>
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.007761014314374762</v>
+        <v>0.01002703454465344</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -10128,16 +10128,16 @@
         <v>405</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5820</v>
+        <v>5659</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001881379644534738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0003864456283347682</v>
+        <v>0.0003869658685853536</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.005555070575617155</v>
+        <v>0.005401390780843011</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -10146,19 +10146,19 @@
         <v>4665</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1567</v>
+        <v>1330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12121</v>
+        <v>11674</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.002227532357126739</v>
+        <v>0.00222753235712674</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0007481027458014645</v>
+        <v>0.0006352746464291747</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.005787973852887707</v>
+        <v>0.005574545975438413</v>
       </c>
     </row>
     <row r="24">
@@ -10175,19 +10175,19 @@
         <v>992850</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>973958</v>
+        <v>974206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1008256</v>
+        <v>1006957</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9487524858042878</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9306996035509177</v>
+        <v>0.9309366752760966</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9634742075606489</v>
+        <v>0.9622334029899747</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1456</v>
@@ -10196,19 +10196,19 @@
         <v>1009110</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>997344</v>
+        <v>997910</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1017643</v>
+        <v>1018462</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9632200757688122</v>
+        <v>0.9632200757688123</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9519888532234895</v>
+        <v>0.9525296954365641</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9713651117630367</v>
+        <v>0.9721467900643496</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2434</v>
@@ -10217,19 +10217,19 @@
         <v>2001959</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1981037</v>
+        <v>1979954</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2019790</v>
+        <v>2018858</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9559902959578617</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.945999289304391</v>
+        <v>0.945482257541659</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.964504796975024</v>
+        <v>0.9640600816834141</v>
       </c>
     </row>
     <row r="25">
@@ -10250,19 +10250,19 @@
         <v>24734</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15318</v>
+        <v>16000</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37457</v>
+        <v>37648</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02534396099819174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01569554385748316</v>
+        <v>0.01639486367957348</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03838081768758175</v>
+        <v>0.03857632210898582</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -10271,19 +10271,19 @@
         <v>8286</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4105</v>
+        <v>3895</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16364</v>
+        <v>15697</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.009130300713625245</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004523239977337905</v>
+        <v>0.00429178872676968</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01803033611634243</v>
+        <v>0.01729514291593365</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -10292,19 +10292,19 @@
         <v>33020</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22046</v>
+        <v>22795</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45720</v>
+        <v>47782</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01753133092498445</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01170476237451128</v>
+        <v>0.01210265053014644</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02427379554730391</v>
+        <v>0.02536846024078768</v>
       </c>
     </row>
     <row r="26">
@@ -10321,19 +10321,19 @@
         <v>138816</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114990</v>
+        <v>117118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>166129</v>
+        <v>163636</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1422402262282788</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1178257841812294</v>
+        <v>0.1200071445551464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1702260651815815</v>
+        <v>0.1676722300302</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>205</v>
@@ -10342,19 +10342,19 @@
         <v>144398</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>127044</v>
+        <v>126022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>166335</v>
+        <v>162953</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1591024133080159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1399815728989868</v>
+        <v>0.1388557193103262</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1832734764877361</v>
+        <v>0.1795480353384063</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>337</v>
@@ -10363,19 +10363,19 @@
         <v>283214</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>253741</v>
+        <v>256080</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>314753</v>
+        <v>316675</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1503653520522484</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1347177015697322</v>
+        <v>0.1359593315112334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1671102596636968</v>
+        <v>0.1681305218905395</v>
       </c>
     </row>
     <row r="27">
@@ -10392,19 +10392,19 @@
         <v>36095</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26549</v>
+        <v>26921</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>50369</v>
+        <v>49444</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03698495404608804</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02720345132428312</v>
+        <v>0.02758516068575757</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05161126727759923</v>
+        <v>0.05066373181547565</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>56</v>
@@ -10413,19 +10413,19 @@
         <v>31894</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>24559</v>
+        <v>24018</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>41235</v>
+        <v>40112</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03514236471346095</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02705976795455919</v>
+        <v>0.02646426032178882</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04543461193542814</v>
+        <v>0.04419663284685983</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>98</v>
@@ -10434,19 +10434,19 @@
         <v>67989</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>55777</v>
+        <v>54779</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>82218</v>
+        <v>83063</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03609709352724171</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02961327401124877</v>
+        <v>0.02908362382452112</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04365148091659379</v>
+        <v>0.04410048781971468</v>
       </c>
     </row>
     <row r="28">
@@ -10463,19 +10463,19 @@
         <v>66007</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49944</v>
+        <v>50172</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>84680</v>
+        <v>87675</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06763545275918725</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05117543393073427</v>
+        <v>0.05140914669278226</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08676893319887355</v>
+        <v>0.08983768404376861</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>73</v>
@@ -10484,19 +10484,19 @@
         <v>52016</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41248</v>
+        <v>40096</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>65547</v>
+        <v>65929</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0573136458816139</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0454485558552363</v>
+        <v>0.04417962324971802</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07222253456533757</v>
+        <v>0.07264267678212011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>135</v>
@@ -10505,19 +10505,19 @@
         <v>118024</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>98372</v>
+        <v>98644</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>142134</v>
+        <v>143169</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06266184054539692</v>
+        <v>0.0626618405453969</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05222835419180728</v>
+        <v>0.05237238890157454</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07546276532773423</v>
+        <v>0.0760121228455035</v>
       </c>
     </row>
     <row r="29">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4291</v>
+        <v>5718</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001078935214183764</v>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.004396400927169085</v>
+        <v>0.005859476909956551</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10555,19 +10555,19 @@
         <v>1861</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5232</v>
+        <v>5713</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002050685591894283</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.000478105468856957</v>
+        <v>0.0004852602417883604</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.00576437206766235</v>
+        <v>0.006294705970732311</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -10576,19 +10576,19 @@
         <v>2914</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>889</v>
+        <v>715</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8511</v>
+        <v>7089</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.001547177800453959</v>
+        <v>0.001547177800453958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0004721636054354303</v>
+        <v>0.0003798140588656988</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.004518445816578965</v>
+        <v>0.003763464697497269</v>
       </c>
     </row>
     <row r="30">
@@ -10605,19 +10605,19 @@
         <v>6324</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2069</v>
+        <v>2247</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14740</v>
+        <v>15176</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.006479904215266509</v>
+        <v>0.006479904215266508</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.002119612750428955</v>
+        <v>0.002302839978808585</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01510406230770804</v>
+        <v>0.01555064385613337</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -10626,19 +10626,19 @@
         <v>3787</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1405</v>
+        <v>1316</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8955</v>
+        <v>8057</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004172246127892851</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00154799322619625</v>
+        <v>0.001449502886662396</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.00986681719778486</v>
+        <v>0.008877019085764513</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>10</v>
@@ -10647,19 +10647,19 @@
         <v>10111</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5202</v>
+        <v>5166</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20304</v>
+        <v>18664</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.005367948083481952</v>
+        <v>0.005367948083481951</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002762135779277375</v>
+        <v>0.002742729473333223</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01077985963953795</v>
+        <v>0.009909307869585052</v>
       </c>
     </row>
     <row r="31">
@@ -10676,19 +10676,19 @@
         <v>914624</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>894776</v>
+        <v>896370</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>929084</v>
+        <v>928381</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9371833032761869</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9168458085629724</v>
+        <v>0.918478943406973</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9520000508096946</v>
+        <v>0.9512790540231794</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1239</v>
@@ -10697,19 +10697,19 @@
         <v>855038</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>843172</v>
+        <v>841610</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>865675</v>
+        <v>865179</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9421114702167382</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.929037450854208</v>
+        <v>0.9273163118895849</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9538322945004696</v>
+        <v>0.9532855493171424</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2123</v>
@@ -10718,19 +10718,19 @@
         <v>1769662</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1747117</v>
+        <v>1748163</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1787715</v>
+        <v>1788714</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.9395579641837051</v>
+        <v>0.9395579641837049</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9275882235330214</v>
+        <v>0.9281433353194679</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9491426715391839</v>
+        <v>0.9496729596305878</v>
       </c>
     </row>
     <row r="32">
@@ -10751,19 +10751,19 @@
         <v>50034</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>36498</v>
+        <v>36180</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>66960</v>
+        <v>69992</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01437226868517505</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0104839432452792</v>
+        <v>0.01039274200529409</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01923439006889795</v>
+        <v>0.02010509638929386</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -10772,19 +10772,19 @@
         <v>23688</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16164</v>
+        <v>16398</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>33077</v>
+        <v>33806</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.006411550169621036</v>
+        <v>0.006411550169621037</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004375095664718807</v>
+        <v>0.00443819234652839</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008952578667106937</v>
+        <v>0.009150096385216818</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>73</v>
@@ -10793,19 +10793,19 @@
         <v>73722</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58776</v>
+        <v>57901</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>92134</v>
+        <v>92835</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0102735609579546</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008190732756807503</v>
+        <v>0.008068826524138583</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01283934976908071</v>
+        <v>0.01293693420369129</v>
       </c>
     </row>
     <row r="33">
@@ -10822,19 +10822,19 @@
         <v>232146</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>204503</v>
+        <v>202642</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>268873</v>
+        <v>268769</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0666839615203367</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05874359944347333</v>
+        <v>0.05820898987982041</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07723373467968164</v>
+        <v>0.07720407004664787</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>433</v>
@@ -10843,19 +10843,19 @@
         <v>314062</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>282871</v>
+        <v>284823</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>344915</v>
+        <v>345537</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.08500468134741421</v>
+        <v>0.08500468134741422</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07656245742988493</v>
+        <v>0.07709080979242867</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09335538462211465</v>
+        <v>0.09352371698456076</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>653</v>
@@ -10864,19 +10864,19 @@
         <v>546208</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>503579</v>
+        <v>505734</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>587448</v>
+        <v>587884</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07611668744536051</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.07017614374431821</v>
+        <v>0.07047635993978535</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08186368110237505</v>
+        <v>0.08192447515757388</v>
       </c>
     </row>
     <row r="34">
@@ -10893,19 +10893,19 @@
         <v>92585</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>73105</v>
+        <v>75256</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>116253</v>
+        <v>116038</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02659516619900486</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02099957242987672</v>
+        <v>0.0216172701794747</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03339373005375261</v>
+        <v>0.03333202777747053</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>106</v>
@@ -10914,19 +10914,19 @@
         <v>63613</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>51862</v>
+        <v>51922</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>77238</v>
+        <v>77332</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01721753858600728</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01403712422583296</v>
+        <v>0.01405331453942974</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02090534078431413</v>
+        <v>0.02093085205470538</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>196</v>
@@ -10935,19 +10935,19 @@
         <v>156198</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>134551</v>
+        <v>132306</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>182330</v>
+        <v>181910</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02176693936429255</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01875036767192539</v>
+        <v>0.01843752469078307</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02540859455839756</v>
+        <v>0.02534999910412395</v>
       </c>
     </row>
     <row r="35">
@@ -10964,19 +10964,19 @@
         <v>100517</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81105</v>
+        <v>79476</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>125124</v>
+        <v>124609</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02887361330649347</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02329743583405344</v>
+        <v>0.02282951371601488</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03594200084101505</v>
+        <v>0.03579385384761968</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>129</v>
@@ -10985,19 +10985,19 @@
         <v>93568</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>77281</v>
+        <v>78491</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>112503</v>
+        <v>113964</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02532540395274486</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02091703421541891</v>
+        <v>0.0212446311621464</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03045027047547467</v>
+        <v>0.03084582883195041</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>225</v>
@@ -11006,19 +11006,19 @@
         <v>194086</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>165694</v>
+        <v>167288</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>221687</v>
+        <v>226549</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02704675897574551</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02309018852264976</v>
+        <v>0.02331234663012783</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03089314715526717</v>
+        <v>0.03157068174649453</v>
       </c>
     </row>
     <row r="36">
@@ -11038,16 +11038,16 @@
         <v>1151</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12526</v>
+        <v>12440</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001412539154853027</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0003306857476076319</v>
+        <v>0.0003306522106020481</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.003598135021963152</v>
+        <v>0.003573339367014316</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -11056,19 +11056,19 @@
         <v>6660</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3303</v>
+        <v>3122</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>12262</v>
+        <v>13436</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001802554176759934</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0008940393634737133</v>
+        <v>0.0008448723337938796</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.003318826546430504</v>
+        <v>0.003636582277995068</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -11077,19 +11077,19 @@
         <v>11577</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6023</v>
+        <v>6300</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20127</v>
+        <v>20902</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001613344846060241</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0008392758663987381</v>
+        <v>0.0008779611623237318</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.002804750718133774</v>
+        <v>0.002912750863803282</v>
       </c>
     </row>
     <row r="37">
@@ -11106,19 +11106,19 @@
         <v>9018</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3633</v>
+        <v>3858</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17441</v>
+        <v>17900</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002590319132979101</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.001043622228287504</v>
+        <v>0.001108142786692336</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.005009848438521863</v>
+        <v>0.005141773828657484</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -11127,19 +11127,19 @@
         <v>12477</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6522</v>
+        <v>6570</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24975</v>
+        <v>23004</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.003377117005410044</v>
+        <v>0.003377117005410045</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001765353606113869</v>
+        <v>0.001778120725735722</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.006759691724750745</v>
+        <v>0.006226330730398393</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -11148,19 +11148,19 @@
         <v>21495</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13724</v>
+        <v>13751</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33901</v>
+        <v>36543</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.002995415044006786</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001912504026238701</v>
+        <v>0.001916226842172533</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.004724298895266974</v>
+        <v>0.005092412475828685</v>
       </c>
     </row>
     <row r="38">
@@ -11177,19 +11177,19 @@
         <v>3346715</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3318520</v>
+        <v>3319652</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3368262</v>
+        <v>3370498</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9613450832054987</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9532460507336692</v>
+        <v>0.95357109219713</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9675343099053687</v>
+        <v>0.9681766364742451</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>5136</v>
@@ -11198,19 +11198,19 @@
         <v>3580400</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3561725</v>
+        <v>3560220</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3597913</v>
+        <v>3597914</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.969077787293512</v>
+        <v>0.9690777872935119</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9640231516251639</v>
+        <v>0.963615735124085</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9738178688121402</v>
+        <v>0.9738180653401832</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8348</v>
@@ -11219,19 +11219,19 @@
         <v>6927117</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6894023</v>
+        <v>6893884</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6954459</v>
+        <v>6956040</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9653263939296406</v>
+        <v>0.9653263939296405</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9607146073086731</v>
+        <v>0.960695259560819</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9691367161464607</v>
+        <v>0.9693570075313342</v>
       </c>
     </row>
     <row r="39">
